--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\UiAutomation\WuLiuUiAutomation\excel_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7950" windowWidth="20385" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" sheetId="1" r:id="rId1"/>
-    <sheet name="HuoZhuSteps" sheetId="4" r:id="rId2"/>
-    <sheet name="GouShuiNiStep" sheetId="2" r:id="rId3"/>
-    <sheet name="KeyWords" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Suite" r:id="rId1" sheetId="1"/>
+    <sheet name="HuoZhuSteps" r:id="rId2" sheetId="4"/>
+    <sheet name="GouShuiNiStep" r:id="rId3" sheetId="2"/>
+    <sheet name="KeyWords" r:id="rId4" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="M1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="N1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="O1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="D2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="2" shapeId="0">
+    <comment authorId="2" ref="J26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G36" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G39" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K39" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K39" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J41" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J41" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I43" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G60" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I60" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I60" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I71" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I78" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I78" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I91" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I91" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I93" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I93" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G98" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G98" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I98" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I98" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G99" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I114" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K114" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G124" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G124" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I124" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I124" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K124" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K124" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I131" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I131" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1152,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="M1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="N1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="O1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G30" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G33" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K33" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1608,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K35" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I37" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1656,7 +1656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1680,7 +1680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1704,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1728,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G50" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I50" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I56" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I65" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I70" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I72" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1896,7 +1896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I74" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I74" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I76" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I76" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I81" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I81" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G85" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G85" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1992,7 +1992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I85" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G87" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2040,7 +2040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I90" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I90" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2088,7 +2088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2170,7 +2170,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2204,7 +2204,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment authorId="0" ref="I2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2228,7 +2228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="I10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="540">
   <si>
     <t>测试用例</t>
   </si>
@@ -4923,6 +4923,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -5033,91 +5034,91 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5134,10 +5135,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5172,7 +5173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5207,7 +5208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5295,7 +5296,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5304,13 +5305,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5320,7 +5321,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5329,7 +5330,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5338,7 +5339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5348,12 +5349,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5384,7 +5385,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5403,7 +5404,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5415,8 +5416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -5424,11 +5425,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5482,18 +5483,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D3" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
       <selection activeCell="M92" sqref="M92"/>
@@ -5501,23 +5502,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.625" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="40.75" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="5.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="18.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="40.75" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27">
+    <row ht="27" r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="27">
+    <row ht="27" r="39" spans="1:15">
       <c r="A39" s="14" t="s">
         <v>531</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="27">
+    <row ht="27" r="41" spans="1:15">
       <c r="A41" s="14" t="s">
         <v>531</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="27">
+    <row ht="27" r="59" spans="1:15">
       <c r="A59" s="14" t="s">
         <v>531</v>
       </c>
@@ -9830,7 +9831,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="27">
+    <row ht="27" r="114" spans="1:15">
       <c r="A114" s="14" t="s">
         <v>531</v>
       </c>
@@ -9986,7 +9987,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="27">
+    <row ht="27" r="118" spans="1:15">
       <c r="A118" s="14" t="s">
         <v>531</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="27">
+    <row ht="27" r="124" spans="1:15">
       <c r="A124" s="14" t="s">
         <v>531</v>
       </c>
@@ -10978,29 +10979,29 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G54 G56:G143">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G54 G56:G143" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C54 C56:C143">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C54 C56:C143" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D54 D56:D143">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D54 D56:D143" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I27" r:id="rId1"/>
-    <hyperlink ref="I30" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="I27"/>
+    <hyperlink r:id="rId2" ref="I30"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -11008,18 +11009,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.25" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14611,31 +14612,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C118" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D118" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G118" type="list">
       <formula1>"浏览器,打开,打开app,关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I20" r:id="rId1"/>
-    <hyperlink ref="I23" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="I20"/>
+    <hyperlink r:id="rId2" ref="I23"/>
+    <hyperlink r:id="rId3" ref="I3"/>
+    <hyperlink r:id="rId4" ref="I6"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -14643,8 +14644,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -14910,14 +14911,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -14944,7 +14945,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="27">
+    <row ht="27" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>506</v>
       </c>
@@ -14982,7 +14983,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27">
+    <row ht="27" r="3" spans="1:15">
       <c r="A3" s="14" t="s">
         <v>506</v>
       </c>
@@ -15056,7 +15057,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="27">
+    <row ht="27" r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>506</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="27">
+    <row ht="27" r="6" spans="1:15">
       <c r="A6" s="14" t="s">
         <v>506</v>
       </c>
@@ -15170,7 +15171,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="27">
+    <row ht="27" r="8" spans="1:15">
       <c r="A8" s="14" t="s">
         <v>506</v>
       </c>
@@ -15248,7 +15249,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27">
+    <row ht="27" r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>506</v>
       </c>
@@ -15324,7 +15325,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27">
+    <row ht="27" r="12" spans="1:15">
       <c r="A12" s="14" t="s">
         <v>506</v>
       </c>
@@ -15365,18 +15366,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D1:D12" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C1:C12" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G1:G12" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭窗口,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I4" shapeId="0">
+    <comment authorId="1" ref="D3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-如从上往下滑动，从左往右滑动</t>
+必须选择一项，且只能选择下拉列表里的数据</t>
         </r>
       </text>
     </comment>
@@ -388,11 +388,35 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-2000毫秒即2秒</t>
+如从上往下滑动，从左往右滑动</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I26" shapeId="0">
+    <comment authorId="1" ref="I6" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2000毫秒即2秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I27" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="J26" shapeId="0">
+    <comment authorId="2" ref="J27" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G36" shapeId="0">
+    <comment authorId="1" ref="G37" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G39" shapeId="0">
+    <comment authorId="1" ref="G40" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K39" shapeId="0">
+    <comment authorId="1" ref="K40" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J41" shapeId="0">
+    <comment authorId="1" ref="J42" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I43" shapeId="0">
+    <comment authorId="1" ref="I44" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,78 +581,6 @@
           </rPr>
           <t xml:space="preserve">
 根据手机号查询出该账户发布的工单id，再传入货名字段中</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="G59" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I59" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-此处填写发货账户</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="K59" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据手机号查询出该账户发布的工单id</t>
         </r>
       </text>
     </comment>
@@ -676,11 +628,35 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-跳出来一个新窗口，切换时下标为1</t>
+此处填写发货账户</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G64" shapeId="0">
+    <comment authorId="1" ref="K60" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据手机号查询出该账户发布的工单id</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="G61" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I64" shapeId="0">
+    <comment authorId="1" ref="I61" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +704,55 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I71" shapeId="0">
+    <comment authorId="1" ref="G65" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I65" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+跳出来一个新窗口，切换时下标为1</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I72" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I78" shapeId="0">
+    <comment authorId="1" ref="I79" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I87" shapeId="0">
+    <comment authorId="1" ref="I88" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I91" shapeId="0">
+    <comment authorId="1" ref="I92" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I93" shapeId="0">
+    <comment authorId="1" ref="I94" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,54 +871,6 @@
           </rPr>
           <t xml:space="preserve">
 3000毫秒即3秒</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="G98" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I98" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据手机号查询出该账户发布的工单id</t>
         </r>
       </text>
     </comment>
@@ -942,11 +918,59 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-跳出来一个新窗口，切换时下标为1</t>
+根据手机号查询出该账户发布的工单id</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I102" shapeId="0">
+    <comment authorId="1" ref="G100" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I100" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+跳出来一个新窗口，切换时下标为1</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I103" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G114" shapeId="0">
+    <comment authorId="1" ref="G115" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I114" shapeId="0">
+    <comment authorId="1" ref="I115" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K114" shapeId="0">
+    <comment authorId="1" ref="K115" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G124" shapeId="0">
+    <comment authorId="1" ref="G125" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I124" shapeId="0">
+    <comment authorId="1" ref="I125" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K124" shapeId="0">
+    <comment authorId="1" ref="K125" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I131" shapeId="0">
+    <comment authorId="1" ref="I132" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="546">
   <si>
     <t>测试用例</t>
   </si>
@@ -4378,10 +4402,6 @@
     <t>auctionIdClick</t>
   </si>
   <si>
-    <t>id,com.hongshi.huoyunzhan:id/cancel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xpath,//android.widget.TextView[@text={0}]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4896,9 +4916,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试步骤执行失败</t>
-  </si>
-  <si>
     <t>test142</t>
   </si>
   <si>
@@ -4916,6 +4933,49 @@
   </si>
   <si>
     <t>xpath,//android.widget.ImageView[@resource-id=''com.hongshi.wuliudidi:id/back'']</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test143</t>
+  </si>
+  <si>
+    <t>login_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤执行失败</t>
+  </si>
+  <si>
+    <r>
+      <t>1525882466</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,com.hongshi.huoyunzhan:id/cancel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消更新</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_002</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5477,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -5494,10 +5554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P143"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A73" sqref="A73:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5567,7 +5627,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -5598,12 +5658,12 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>34</v>
@@ -5617,8 +5677,8 @@
       <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>37</v>
+      <c r="F3" s="20" t="s">
+        <v>544</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>38</v>
@@ -5632,16 +5692,16 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="20" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -5652,36 +5712,34 @@
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H4" s="16" t="str">
         <f>VLOOKUP(G4,KeyWords!A:B,2,FALSE)</f>
-        <v>swapApp</v>
+        <v>sleep</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>39</v>
@@ -5696,30 +5754,32 @@
         <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H5" s="16" t="str">
         <f>VLOOKUP(G5,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>swapApp</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>44</v>
@@ -5734,30 +5794,30 @@
         <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6" s="16" t="str">
         <f>VLOOKUP(G6,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I6" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -5771,33 +5831,31 @@
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>50</v>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H7" s="16" t="str">
         <f>VLOOKUP(G7,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>49</v>
@@ -5811,8 +5869,8 @@
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>55</v>
+      <c r="F8" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>51</v>
@@ -5821,23 +5879,23 @@
         <f>VLOOKUP(G8,KeyWords!A:B,2,FALSE)</f>
         <v>inputText</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>54</v>
@@ -5848,34 +5906,36 @@
       <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H9" s="16" t="str">
         <f>VLOOKUP(G9,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I9" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>58</v>
@@ -5886,34 +5946,34 @@
       <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H10" s="16" t="str">
         <f>VLOOKUP(G10,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>533</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>59</v>
@@ -5925,35 +5985,33 @@
         <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H11" s="16" t="str">
         <f>VLOOKUP(G11,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>sleep</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="20" t="s">
-        <v>476</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>61</v>
@@ -5968,7 +6026,7 @@
         <v>63</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>38</v>
@@ -5977,21 +6035,21 @@
         <f>VLOOKUP(G12,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="22" t="s">
+        <v>476</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>67</v>
+      <c r="M12" s="20" t="s">
+        <v>475</v>
       </c>
       <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>62</v>
@@ -6006,7 +6064,7 @@
         <v>63</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>38</v>
@@ -6015,23 +6073,19 @@
         <f>VLOOKUP(G13,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="20" t="s">
-        <v>491</v>
+      <c r="M13" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>65</v>
@@ -6046,7 +6100,7 @@
         <v>63</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>38</v>
@@ -6055,21 +6109,21 @@
         <f>VLOOKUP(G14,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="I14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>75</v>
+      <c r="M14" s="20" t="s">
+        <v>490</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>68</v>
@@ -6084,7 +6138,7 @@
         <v>63</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>38</v>
@@ -6093,23 +6147,19 @@
         <f>VLOOKUP(G15,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="17" t="s">
-        <v>80</v>
+      <c r="M15" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>70</v>
@@ -6124,32 +6174,30 @@
         <v>63</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H16" s="16" t="str">
         <f>VLOOKUP(G16,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>84</v>
+      <c r="M16" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>73</v>
@@ -6163,31 +6211,31 @@
       <c r="E17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>86</v>
+      <c r="F17" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H17" s="16" t="str">
         <f>VLOOKUP(G17,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="14" t="s">
-        <v>478</v>
+      <c r="M17" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>76</v>
@@ -6201,31 +6249,29 @@
       <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>35</v>
+      <c r="F18" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18" s="16" t="str">
         <f>VLOOKUP(G18,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="14" t="s">
+        <v>477</v>
+      </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>77</v>
@@ -6239,33 +6285,29 @@
       <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>88</v>
+      <c r="F19" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16" t="str">
         <f>VLOOKUP(G19,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>89</v>
+        <v>sleep</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>504</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="20" t="s">
-        <v>490</v>
-      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>81</v>
@@ -6279,33 +6321,31 @@
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>91</v>
+      <c r="F20" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H20" s="16" t="str">
         <f>VLOOKUP(G20,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
+        <v>buttonClick</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5" t="s">
-        <v>93</v>
+      <c r="M20" s="20" t="s">
+        <v>489</v>
       </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>85</v>
@@ -6320,30 +6360,30 @@
         <v>63</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H21" s="16" t="str">
         <f>VLOOKUP(G21,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>534</v>
+        <v>inputText</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>87</v>
@@ -6357,31 +6397,29 @@
       <c r="E22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>95</v>
+      <c r="F22" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H22" s="16" t="str">
         <f>VLOOKUP(G22,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="20" t="s">
-        <v>492</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>90</v>
@@ -6395,8 +6433,8 @@
       <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>97</v>
+      <c r="F23" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>38</v>
@@ -6405,23 +6443,19 @@
         <f>VLOOKUP(G23,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="14" t="s">
-        <v>493</v>
+      <c r="M23" s="20" t="s">
+        <v>491</v>
       </c>
       <c r="N23" s="5"/>
-      <c r="O23" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>94</v>
@@ -6436,7 +6470,7 @@
         <v>63</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>38</v>
@@ -6445,21 +6479,21 @@
         <f>VLOOKUP(G24,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="I24" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
-        <v>101</v>
+      <c r="M24" s="14" t="s">
+        <v>492</v>
       </c>
       <c r="N24" s="5"/>
-      <c r="O24" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>96</v>
@@ -6474,69 +6508,64 @@
         <v>63</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H25" s="16" t="str">
         <f>VLOOKUP(G25,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>535</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="N25" s="5"/>
-      <c r="O25" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="H26" s="16" t="str">
         <f>VLOOKUP(G26,KeyWords!A:B,2,FALSE)</f>
-        <v>openBrowser</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="17"/>
+        <v>sleep</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>102</v>
@@ -6550,31 +6579,30 @@
       <c r="E27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>111</v>
+      <c r="F27" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H27" s="16" t="str">
         <f>VLOOKUP(G27,KeyWords!A:B,2,FALSE)</f>
-        <v>openURL</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+        <v>openBrowser</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="17"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>103</v>
@@ -6589,30 +6617,28 @@
         <v>31</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="H28" s="16" t="str">
         <f>VLOOKUP(G28,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+        <v>openURL</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>110</v>
@@ -6626,31 +6652,29 @@
       <c r="E29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>116</v>
+      <c r="F29" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="H29" s="16" t="str">
         <f>VLOOKUP(G29,KeyWords!A:B,2,FALSE)</f>
-        <v>clearText</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="18" t="s">
-        <v>118</v>
-      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>114</v>
@@ -6664,33 +6688,29 @@
       <c r="E30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>50</v>
+      <c r="F30" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="H30" s="16" t="str">
         <f>VLOOKUP(G30,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+        <v>clearText</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="18" t="s">
         <v>118</v>
       </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>115</v>
@@ -6704,31 +6724,31 @@
       <c r="E31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>122</v>
+      <c r="F31" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="str">
         <f>VLOOKUP(G31,KeyWords!A:B,2,FALSE)</f>
-        <v>clearText</v>
-      </c>
-      <c r="I31" s="21"/>
+        <v>inputText</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>524</v>
+      </c>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="5"/>
       <c r="M31" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N31" s="5"/>
-      <c r="O31" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>119</v>
@@ -6742,33 +6762,29 @@
       <c r="E32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>55</v>
+      <c r="F32" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="H32" s="16" t="str">
         <f>VLOOKUP(G32,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+        <v>clearText</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="5"/>
       <c r="M32" s="15" t="s">
         <v>123</v>
       </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>121</v>
@@ -6783,30 +6799,30 @@
         <v>31</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H33" s="16" t="str">
         <f>VLOOKUP(G33,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="5"/>
       <c r="M33" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>124</v>
@@ -6821,30 +6837,28 @@
         <v>31</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H34" s="16" t="str">
         <f>VLOOKUP(G34,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="M34" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>126</v>
@@ -6858,31 +6872,29 @@
       <c r="E35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>133</v>
+      <c r="F35" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H35" s="16" t="str">
         <f>VLOOKUP(G35,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>127</v>
@@ -6897,30 +6909,28 @@
         <v>31</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="H36" s="16" t="str">
         <f>VLOOKUP(G36,KeyWords!A:B,2,FALSE)</f>
-        <v>moveToElementClick</v>
+        <v>buttonClick</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="17" t="s">
-        <v>138</v>
+      <c r="M36" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="N36" s="5"/>
-      <c r="O36" s="20" t="s">
-        <v>479</v>
-      </c>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>130</v>
@@ -6934,31 +6944,29 @@
       <c r="E37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>35</v>
+      <c r="F37" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="H37" s="16" t="str">
         <f>VLOOKUP(G37,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>500</v>
-      </c>
+        <v>moveToElementClick</v>
+      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="17"/>
+      <c r="M37" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="N37" s="5"/>
-      <c r="O37" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O37" s="20"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>132</v>
@@ -6969,34 +6977,32 @@
       <c r="D38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>142</v>
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H38" s="16" t="str">
         <f>VLOOKUP(G38,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+        <v>sleep</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="17"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row ht="27" r="39" spans="1:15">
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>135</v>
@@ -7011,36 +7017,28 @@
         <v>141</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H39" s="16" t="str">
         <f>VLOOKUP(G39,KeyWords!A:B,2,FALSE)</f>
-        <v>transIdMultipleExpressionClick</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>intoIframe</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="M39" s="17"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row ht="27" r="40" spans="1:15">
       <c r="A40" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>139</v>
@@ -7055,28 +7053,34 @@
         <v>141</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H40" s="16" t="str">
         <f>VLOOKUP(G40,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
+        <v>transIdMultipleExpressionClick</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L40" s="5"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row ht="27" r="41" spans="1:15">
+      <c r="M40" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="N40" s="20"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>140</v>
@@ -7091,31 +7095,26 @@
         <v>141</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H41" s="16" t="str">
         <f>VLOOKUP(G41,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframeContainsTransId</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="M41" s="18"/>
       <c r="N41" s="17"/>
-      <c r="O41" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="O41" s="5"/>
+    </row>
+    <row ht="27" r="42" spans="1:15">
       <c r="A42" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>144</v>
@@ -7130,30 +7129,29 @@
         <v>141</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="H42" s="16" t="str">
         <f>VLOOKUP(G42,KeyWords!A:B,2,FALSE)</f>
-        <v>clearText</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+        <v>intoIframeContainsTransId</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>151</v>
@@ -7168,32 +7166,28 @@
         <v>141</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="H43" s="16" t="str">
         <f>VLOOKUP(G43,KeyWords!A:B,2,FALSE)</f>
-        <v>inputTransId</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
+        <v>clearText</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="18" t="s">
         <v>158</v>
       </c>
       <c r="N43" s="5"/>
-      <c r="O43" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>153</v>
@@ -7208,32 +7202,30 @@
         <v>141</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="H44" s="16" t="str">
         <f>VLOOKUP(G44,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
+        <v>inputTransId</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="17" t="s">
-        <v>164</v>
+      <c r="M44" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="N44" s="5"/>
-      <c r="O44" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>156</v>
@@ -7247,31 +7239,31 @@
       <c r="E45" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>166</v>
+      <c r="F45" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="H45" s="16" t="str">
         <f>VLOOKUP(G45,KeyWords!A:B,2,FALSE)</f>
-        <v>clearText</v>
-      </c>
-      <c r="I45" s="17"/>
+        <v>inputText</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="18" t="s">
-        <v>167</v>
+      <c r="M45" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="O45" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>159</v>
@@ -7285,19 +7277,17 @@
       <c r="E46" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>169</v>
+      <c r="F46" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="H46" s="16" t="str">
         <f>VLOOKUP(G46,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>43</v>
-      </c>
+        <v>clearText</v>
+      </c>
+      <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="5"/>
@@ -7305,13 +7295,11 @@
         <v>167</v>
       </c>
       <c r="N46" s="5"/>
-      <c r="O46" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>162</v>
@@ -7326,28 +7314,30 @@
         <v>141</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="H47" s="16" t="str">
         <f>VLOOKUP(G47,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="M47" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="N47" s="5"/>
-      <c r="O47" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>165</v>
@@ -7362,30 +7352,26 @@
         <v>141</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H48" s="16" t="str">
         <f>VLOOKUP(G48,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="17" t="s">
-        <v>173</v>
-      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>168</v>
@@ -7400,7 +7386,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>38</v>
@@ -7413,17 +7399,15 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="18" t="s">
-        <v>176</v>
+      <c r="M49" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="N49" s="5"/>
-      <c r="O49" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>170</v>
@@ -7438,28 +7422,28 @@
         <v>141</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H50" s="16" t="str">
         <f>VLOOKUP(G50,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
+        <v>buttonClick</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="M50" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N50" s="5"/>
-      <c r="O50" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>171</v>
@@ -7473,69 +7457,63 @@
       <c r="E51" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>35</v>
+      <c r="F51" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="H51" s="16" t="str">
         <f>VLOOKUP(G51,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>48</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O51" s="5"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>181</v>
+        <v>141</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H52" s="16" t="str">
         <f>VLOOKUP(G52,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I52" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="17" t="s">
-        <v>501</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>177</v>
@@ -7550,7 +7528,7 @@
         <v>180</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>38</v>
@@ -7564,16 +7542,14 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>178</v>
@@ -7588,7 +7564,7 @@
         <v>180</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>38</v>
@@ -7602,97 +7578,94 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15">
+      <c r="A55" s="14" t="s">
+        <v>538</v>
+      </c>
       <c r="B55" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="C55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="16" t="str">
+        <f>VLOOKUP(G55,KeyWords!A:B,2,FALSE)</f>
+        <v>buttonClick</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="16" t="str">
-        <f>VLOOKUP(G56,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>142</v>
+        <v>180</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H57" s="16" t="str">
         <f>VLOOKUP(G57,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J57" s="17"/>
+        <v>sleep</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O57" s="5"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>186</v>
@@ -7707,30 +7680,28 @@
         <v>188</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H58" s="16" t="str">
         <f>VLOOKUP(G58,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="17"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="17" t="s">
-        <v>191</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row ht="27" r="59" spans="1:15">
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>187</v>
@@ -7745,36 +7716,28 @@
         <v>188</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="H59" s="16" t="str">
         <f>VLOOKUP(G59,KeyWords!A:B,2,FALSE)</f>
-        <v>transIdMultipleExpressionClick</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K59" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="M59" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row ht="27" r="60" spans="1:15">
       <c r="A60" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>189</v>
@@ -7789,30 +7752,34 @@
         <v>188</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="H60" s="16" t="str">
         <f>VLOOKUP(G60,KeyWords!A:B,2,FALSE)</f>
-        <v>switchWindow</v>
+        <v>transIdMultipleExpressionClick</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L60" s="5"/>
-      <c r="M60" s="18"/>
+      <c r="M60" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="N60" s="17"/>
-      <c r="O60" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>192</v>
@@ -7826,31 +7793,29 @@
       <c r="E61" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>35</v>
+      <c r="F61" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="H61" s="16" t="str">
         <f>VLOOKUP(G61,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>switchWindow</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="5"/>
       <c r="M61" s="18"/>
       <c r="N61" s="17"/>
-      <c r="O61" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O61" s="5"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>193</v>
@@ -7864,31 +7829,29 @@
       <c r="E62" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="18" t="s">
-        <v>142</v>
+      <c r="F62" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H62" s="16" t="str">
         <f>VLOOKUP(G62,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="17"/>
       <c r="L62" s="5"/>
       <c r="M62" s="18"/>
       <c r="N62" s="17"/>
-      <c r="O62" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>195</v>
@@ -7902,31 +7865,29 @@
       <c r="E63" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="20" t="s">
-        <v>498</v>
+      <c r="F63" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H63" s="16" t="str">
         <f>VLOOKUP(G63,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I63" s="24"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="17"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="19" t="s">
-        <v>497</v>
-      </c>
+      <c r="M63" s="18"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O63" s="5"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>196</v>
@@ -7940,31 +7901,29 @@
       <c r="E64" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>197</v>
+      <c r="F64" s="20" t="s">
+        <v>497</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="H64" s="16" t="str">
         <f>VLOOKUP(G64,KeyWords!A:B,2,FALSE)</f>
-        <v>switchWindow</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="J64" s="17"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I64" s="24"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="17"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="18"/>
+      <c r="M64" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="N64" s="17"/>
-      <c r="O64" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O64" s="5"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>198</v>
@@ -7979,30 +7938,28 @@
         <v>188</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="H65" s="16" t="str">
         <f>VLOOKUP(G65,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+        <v>switchWindow</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="5"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>199</v>
@@ -8017,7 +7974,7 @@
         <v>188</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>38</v>
@@ -8031,16 +7988,14 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N66" s="5"/>
-      <c r="O66" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O66" s="5"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>202</v>
@@ -8054,31 +8009,29 @@
       <c r="E67" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>35</v>
+      <c r="F67" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H67" s="16" t="str">
         <f>VLOOKUP(G67,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>500</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="17"/>
+      <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M67" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>205</v>
@@ -8092,31 +8045,29 @@
       <c r="E68" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>209</v>
+      <c r="F68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="H68" s="16" t="str">
         <f>VLOOKUP(G68,KeyWords!A:B,2,FALSE)</f>
-        <v>javaScriptClick</v>
-      </c>
-      <c r="I68" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="K68" s="17"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>207</v>
@@ -8130,31 +8081,29 @@
       <c r="E69" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>35</v>
+      <c r="F69" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="H69" s="16" t="str">
         <f>VLOOKUP(G69,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>500</v>
-      </c>
+        <v>javaScriptClick</v>
+      </c>
+      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="17"/>
+      <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M69" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>210</v>
@@ -8168,29 +8117,29 @@
       <c r="E70" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>152</v>
+      <c r="F70" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H70" s="16" t="str">
         <f>VLOOKUP(G70,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I70" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="5"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>213</v>
@@ -8204,67 +8153,63 @@
       <c r="E71" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="33" t="s">
-        <v>530</v>
+      <c r="F71" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>528</v>
+        <v>152</v>
       </c>
       <c r="H71" s="16" t="str">
         <f>VLOOKUP(G71,KeyWords!A:B,2,FALSE)</f>
-        <v>closeWindow</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>527</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="17"/>
+      <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>480</v>
+        <v>188</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>527</v>
       </c>
       <c r="H72" s="16" t="str">
         <f>VLOOKUP(G72,KeyWords!A:B,2,FALSE)</f>
-        <v>openApp</v>
-      </c>
-      <c r="I72" s="5"/>
+        <v>closeWindow</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>526</v>
+      </c>
       <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="5"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>217</v>
@@ -8279,30 +8224,28 @@
         <v>31</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>38</v>
+        <v>216</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>479</v>
       </c>
       <c r="H73" s="16" t="str">
         <f>VLOOKUP(G73,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>openApp</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="17" t="s">
-        <v>219</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>218</v>
@@ -8317,30 +8260,30 @@
         <v>31</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H74" s="16" t="str">
         <f>VLOOKUP(G74,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I74" s="23" t="s">
-        <v>69</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="17"/>
+      <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="M74" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="N74" s="5"/>
       <c r="O74" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>220</v>
@@ -8348,39 +8291,37 @@
       <c r="C75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H75" s="16" t="str">
         <f>VLOOKUP(G75,KeyWords!A:B,2,FALSE)</f>
-        <v>swapApp</v>
+        <v>sleep</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K75" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>221</v>
@@ -8388,37 +8329,39 @@
       <c r="C76" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H76" s="16" t="str">
         <f>VLOOKUP(G76,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+        <v>swapApp</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="17" t="s">
-        <v>223</v>
-      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>222</v>
@@ -8433,30 +8376,30 @@
         <v>31</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H77" s="16" t="str">
         <f>VLOOKUP(G77,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I77" s="22" t="s">
-        <v>500</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="17"/>
+      <c r="M77" s="17" t="s">
+        <v>223</v>
+      </c>
       <c r="N77" s="5"/>
       <c r="O77" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>224</v>
@@ -8464,37 +8407,37 @@
       <c r="C78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="17" t="s">
-        <v>226</v>
+      <c r="F78" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H78" s="16" t="str">
         <f>VLOOKUP(G78,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I78" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="17" t="s">
-        <v>227</v>
-      </c>
+      <c r="M78" s="17"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>225</v>
@@ -8509,32 +8452,30 @@
         <v>31</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H79" s="16" t="str">
         <f>VLOOKUP(G79,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>230</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N79" s="5"/>
       <c r="O79" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>228</v>
@@ -8549,7 +8490,7 @@
         <v>31</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>51</v>
@@ -8559,22 +8500,22 @@
         <v>inputText</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>481</v>
+        <v>230</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>232</v>
@@ -8589,30 +8530,32 @@
         <v>31</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H81" s="16" t="str">
         <f>VLOOKUP(G81,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I81" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>480</v>
+      </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N81" s="5"/>
       <c r="O81" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>235</v>
@@ -8620,37 +8563,37 @@
       <c r="C82" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>35</v>
+      <c r="F82" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H82" s="16" t="str">
         <f>VLOOKUP(G82,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>500</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="17"/>
+      <c r="M82" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>236</v>
@@ -8658,37 +8601,37 @@
       <c r="C83" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>242</v>
+        <v>31</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H83" s="16" t="str">
         <f>VLOOKUP(G83,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I83" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="17" t="s">
-        <v>243</v>
-      </c>
+      <c r="M83" s="17"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>239</v>
@@ -8703,7 +8646,7 @@
         <v>141</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>38</v>
@@ -8717,16 +8660,14 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N84" s="5"/>
-      <c r="O84" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>241</v>
@@ -8734,37 +8675,35 @@
       <c r="C85" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>35</v>
+      <c r="F85" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H85" s="16" t="str">
         <f>VLOOKUP(G85,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I85" s="22" t="s">
-        <v>500</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="17"/>
+      <c r="M85" s="17" t="s">
+        <v>247</v>
+      </c>
       <c r="N85" s="5"/>
-      <c r="O85" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>244</v>
@@ -8772,39 +8711,35 @@
       <c r="C86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F86" s="17" t="s">
-        <v>250</v>
+      <c r="F86" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H86" s="16" t="str">
         <f>VLOOKUP(G86,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I86" s="23" t="s">
-        <v>251</v>
+        <v>sleep</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="17" t="s">
-        <v>252</v>
-      </c>
+      <c r="M86" s="17"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>245</v>
@@ -8819,17 +8754,17 @@
         <v>141</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="H87" s="16" t="str">
         <f>VLOOKUP(G87,KeyWords!A:B,2,FALSE)</f>
-        <v>transIdClick</v>
+        <v>buttonClick</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>482</v>
+        <v>251</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -8838,13 +8773,11 @@
         <v>252</v>
       </c>
       <c r="N87" s="5"/>
-      <c r="O87" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>248</v>
@@ -8859,30 +8792,30 @@
         <v>141</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="H88" s="16" t="str">
         <f>VLOOKUP(G88,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I88" s="17"/>
+        <v>transIdClick</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>481</v>
+      </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N88" s="5"/>
-      <c r="O88" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>249</v>
@@ -8897,7 +8830,7 @@
         <v>141</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>38</v>
@@ -8906,23 +8839,19 @@
         <f>VLOOKUP(G89,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I89" s="17" t="s">
-        <v>261</v>
-      </c>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N89" s="5"/>
-      <c r="O89" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O89" s="5"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>253</v>
@@ -8937,7 +8866,7 @@
         <v>141</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>38</v>
@@ -8946,21 +8875,21 @@
         <f>VLOOKUP(G90,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I90" s="5"/>
+      <c r="I90" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="17" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N90" s="5"/>
-      <c r="O90" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O90" s="5"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>256</v>
@@ -8974,31 +8903,29 @@
       <c r="E91" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>35</v>
+      <c r="F91" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H91" s="16" t="str">
         <f>VLOOKUP(G91,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I91" s="22" t="s">
-        <v>504</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="17"/>
+      <c r="M91" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="N91" s="5"/>
-      <c r="O91" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>259</v>
@@ -9012,31 +8939,29 @@
       <c r="E92" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F92" s="20" t="s">
-        <v>523</v>
+      <c r="F92" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H92" s="16" t="str">
         <f>VLOOKUP(G92,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I92" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>503</v>
+      </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="20" t="s">
-        <v>539</v>
-      </c>
+      <c r="M92" s="17"/>
       <c r="N92" s="5"/>
-      <c r="O92" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O92" s="5"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>262</v>
@@ -9050,69 +8975,65 @@
       <c r="E93" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>35</v>
+      <c r="F93" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H93" s="16" t="str">
         <f>VLOOKUP(G93,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I93" s="24" t="s">
-        <v>48</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="17"/>
+      <c r="M93" s="20" t="s">
+        <v>537</v>
+      </c>
       <c r="N93" s="5"/>
-      <c r="O93" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H94" s="16" t="str">
         <f>VLOOKUP(G94,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I94" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="17"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>268</v>
@@ -9127,30 +9048,28 @@
         <v>270</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H95" s="16" t="str">
         <f>VLOOKUP(G95,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I95" s="17"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="M95" s="17"/>
       <c r="N95" s="5"/>
-      <c r="O95" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>269</v>
@@ -9164,31 +9083,29 @@
       <c r="E96" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>35</v>
+      <c r="F96" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H96" s="16" t="str">
         <f>VLOOKUP(G96,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>534</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
+      <c r="M96" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="N96" s="5"/>
-      <c r="O96" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>271</v>
@@ -9202,31 +9119,29 @@
       <c r="E97" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F97" s="20" t="s">
-        <v>483</v>
+      <c r="F97" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H97" s="16" t="str">
         <f>VLOOKUP(G97,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I97" s="23"/>
+        <v>sleep</v>
+      </c>
+      <c r="I97" s="22" t="s">
+        <v>533</v>
+      </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="20" t="s">
-        <v>484</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
-      <c r="O97" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O97" s="5"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>274</v>
@@ -9240,33 +9155,29 @@
       <c r="E98" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F98" s="18" t="s">
-        <v>277</v>
+      <c r="F98" s="20" t="s">
+        <v>482</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="H98" s="16" t="str">
         <f>VLOOKUP(G98,KeyWords!A:B,2,FALSE)</f>
-        <v>transIdClick</v>
-      </c>
-      <c r="I98" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J98" s="17"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I98" s="23"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="N98" s="17"/>
-      <c r="O98" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M98" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>276</v>
@@ -9281,30 +9192,30 @@
         <v>270</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="H99" s="16" t="str">
         <f>VLOOKUP(G99,KeyWords!A:B,2,FALSE)</f>
-        <v>switchWindow</v>
-      </c>
-      <c r="I99" s="23" t="s">
-        <v>92</v>
+        <v>transIdClick</v>
+      </c>
+      <c r="I99" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
+      <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="18"/>
+      <c r="M99" s="17" t="s">
+        <v>484</v>
+      </c>
       <c r="N99" s="17"/>
-      <c r="O99" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O99" s="5"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>280</v>
@@ -9319,30 +9230,28 @@
         <v>270</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="H100" s="16" t="str">
         <f>VLOOKUP(G100,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
+        <v>switchWindow</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="5"/>
       <c r="M100" s="18"/>
       <c r="N100" s="17"/>
-      <c r="O100" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O100" s="5"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>281</v>
@@ -9356,31 +9265,29 @@
       <c r="E101" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F101" s="19" t="s">
-        <v>486</v>
+      <c r="F101" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H101" s="16" t="str">
         <f>VLOOKUP(G101,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I101" s="23"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="19" t="s">
-        <v>487</v>
-      </c>
+      <c r="M101" s="18"/>
       <c r="N101" s="17"/>
-      <c r="O101" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O101" s="5"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>282</v>
@@ -9394,32 +9301,29 @@
       <c r="E102" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F102" s="18" t="s">
-        <v>285</v>
+      <c r="F102" s="19" t="s">
+        <v>485</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="H102" t="s">
-        <v>430</v>
-      </c>
-      <c r="I102" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="H102" s="16" t="str">
+        <f>VLOOKUP(G102,KeyWords!A:B,2,FALSE)</f>
+        <v>buttonClick</v>
+      </c>
+      <c r="I102" s="23"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M102" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="N102" s="17"/>
+      <c r="O102" s="5"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>283</v>
@@ -9434,30 +9338,29 @@
         <v>270</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H103" s="16" t="str">
-        <f>VLOOKUP(G103,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I103" s="5"/>
+        <v>286</v>
+      </c>
+      <c r="H103" t="s">
+        <v>430</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="17" t="s">
-        <v>290</v>
+        <v>487</v>
       </c>
       <c r="N103" s="5"/>
-      <c r="O103" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O103" s="5"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>284</v>
@@ -9472,28 +9375,28 @@
         <v>270</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H104" s="16" t="str">
         <f>VLOOKUP(G104,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
+        <v>buttonClick</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
+      <c r="M104" s="17" t="s">
+        <v>290</v>
+      </c>
       <c r="N104" s="5"/>
-      <c r="O104" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O104" s="5"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>288</v>
@@ -9508,30 +9411,26 @@
         <v>270</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H105" s="16" t="str">
         <f>VLOOKUP(G105,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
-      <c r="O105" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O105" s="5"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>291</v>
@@ -9545,31 +9444,29 @@
       <c r="E106" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>35</v>
+      <c r="F106" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H106" s="16" t="str">
         <f>VLOOKUP(G106,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>538</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="17"/>
+      <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M106" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>292</v>
@@ -9583,31 +9480,29 @@
       <c r="E107" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F107" s="18" t="s">
-        <v>142</v>
+      <c r="F107" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H107" s="16" t="str">
         <f>VLOOKUP(G107,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I107" s="22" t="s">
+        <v>536</v>
       </c>
       <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="K107" s="17"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M107" s="18"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>294</v>
@@ -9619,33 +9514,31 @@
         <v>105</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H108" s="16" t="str">
         <f>VLOOKUP(G108,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I108" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="17" t="s">
-        <v>299</v>
-      </c>
+      <c r="M108" s="17"/>
       <c r="N108" s="5"/>
-      <c r="O108" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O108" s="5"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>295</v>
@@ -9660,28 +9553,28 @@
         <v>297</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H109" s="16" t="str">
         <f>VLOOKUP(G109,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
+        <v>buttonClick</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
+      <c r="M109" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="N109" s="5"/>
-      <c r="O109" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O109" s="5"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>296</v>
@@ -9696,30 +9589,26 @@
         <v>297</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H110" s="16" t="str">
         <f>VLOOKUP(G110,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O110" s="5"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>300</v>
@@ -9733,31 +9622,29 @@
       <c r="E111" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>35</v>
+      <c r="F111" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H111" s="16" t="str">
         <f>VLOOKUP(G111,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>507</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="17"/>
+      <c r="M111" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="N111" s="5"/>
-      <c r="O111" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O111" s="5"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>301</v>
@@ -9769,33 +9656,31 @@
         <v>105</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>142</v>
+        <v>297</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H112" s="16" t="str">
         <f>VLOOKUP(G112,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I112" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>506</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="17"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O112" s="5"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>302</v>
@@ -9810,30 +9695,28 @@
         <v>306</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>319</v>
+        <v>142</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H113" s="16" t="str">
         <f>VLOOKUP(G113,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I113" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="20" t="s">
-        <v>510</v>
-      </c>
+      <c r="M113" s="17"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row ht="27" r="114" spans="1:15">
+      <c r="O113" s="5"/>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>303</v>
@@ -9851,33 +9734,25 @@
         <v>319</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="H114" s="16" t="str">
         <f>VLOOKUP(G114,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
-      </c>
-      <c r="I114" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J114" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K114" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="N114" s="17"/>
-      <c r="O114" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="M114" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+    </row>
+    <row ht="27" r="115" spans="1:15">
       <c r="A115" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>304</v>
@@ -9892,28 +9767,34 @@
         <v>306</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="H115" s="16" t="str">
         <f>VLOOKUP(G115,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
+        <v>itemIdMultipleExpressionClick</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J115" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K115" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M115" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="N115" s="17"/>
+      <c r="O115" s="5"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>305</v>
@@ -9927,31 +9808,27 @@
       <c r="E116" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>35</v>
+      <c r="F116" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="H116" s="16" t="str">
         <f>VLOOKUP(G116,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>513</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O116" s="5"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>307</v>
@@ -9965,31 +9842,29 @@
       <c r="E117" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F117" s="18" t="s">
-        <v>142</v>
+      <c r="F117" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H117" s="16" t="str">
         <f>VLOOKUP(G117,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I117" s="23" t="s">
+        <v>sleep</v>
+      </c>
+      <c r="I117" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="J117" s="17"/>
-      <c r="K117" s="18"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row ht="27" r="118" spans="1:15">
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>310</v>
@@ -10004,32 +9879,28 @@
         <v>306</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>466</v>
+        <v>142</v>
       </c>
       <c r="H118" s="16" t="str">
         <f>VLOOKUP(G118,KeyWords!A:B,2,FALSE)</f>
-        <v>getSelectDataByText</v>
-      </c>
-      <c r="I118" s="32" t="s">
-        <v>330</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>511</v>
       </c>
       <c r="J118" s="17"/>
       <c r="K118" s="18"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="18" t="s">
-        <v>331</v>
-      </c>
+      <c r="M118" s="18"/>
       <c r="N118" s="17"/>
-      <c r="O118" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="O118" s="5"/>
+    </row>
+    <row ht="27" r="119" spans="1:15">
       <c r="A119" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>311</v>
@@ -10044,31 +9915,33 @@
         <v>306</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>152</v>
+        <v>466</v>
       </c>
       <c r="H119" s="16" t="str">
         <f>VLOOKUP(G119,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+        <v>getSelectDataByText</v>
+      </c>
+      <c r="I119" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="J119" s="17"/>
+      <c r="K119" s="18"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M119" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="N119" s="17"/>
+      <c r="O119" s="5"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>104</v>
@@ -10080,30 +9953,26 @@
         <v>306</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H120" s="16" t="str">
         <f>VLOOKUP(G120,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="M120" s="18"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O120" s="5"/>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>315</v>
@@ -10118,7 +9987,7 @@
         <v>306</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="G121" s="15" t="s">
         <v>38</v>
@@ -10132,16 +10001,14 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="18" t="s">
-        <v>336</v>
+        <v>176</v>
       </c>
       <c r="N121" s="5"/>
-      <c r="O121" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O121" s="5"/>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>316</v>
@@ -10155,31 +10022,29 @@
       <c r="E122" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>35</v>
+      <c r="F122" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H122" s="16" t="str">
         <f>VLOOKUP(G122,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I122" s="22" t="s">
-        <v>534</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
+      <c r="M122" s="18" t="s">
+        <v>336</v>
+      </c>
       <c r="N122" s="5"/>
-      <c r="O122" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O122" s="5"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>317</v>
@@ -10191,33 +10056,31 @@
         <v>105</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F123" s="18" t="s">
-        <v>142</v>
+        <v>306</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H123" s="16" t="str">
         <f>VLOOKUP(G123,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I123" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I123" s="22" t="s">
+        <v>533</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="17"/>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
-      <c r="O123" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row ht="27" r="124" spans="1:15">
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>318</v>
@@ -10232,36 +10095,28 @@
         <v>339</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
       <c r="H124" s="16" t="str">
         <f>VLOOKUP(G124,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
+        <v>intoIframe</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J124" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K124" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="N124" s="17"/>
-      <c r="O124" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="M124" s="17"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row ht="27" r="125" spans="1:15">
       <c r="A125" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>320</v>
@@ -10276,28 +10131,34 @@
         <v>339</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="H125" s="16" t="str">
         <f>VLOOKUP(G125,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+        <v>itemIdMultipleExpressionClick</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J125" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K125" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="M125" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="N125" s="17"/>
+      <c r="O125" s="5"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>321</v>
@@ -10312,30 +10173,26 @@
         <v>339</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H126" s="16" t="str">
         <f>VLOOKUP(G126,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I126" s="17" t="s">
-        <v>343</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
-      <c r="O126" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O126" s="5"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>326</v>
@@ -10349,30 +10206,29 @@
       <c r="E127" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F127" s="19" t="s">
-        <v>511</v>
+      <c r="F127" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I127" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="H127" s="16" t="str">
+        <f>VLOOKUP(G127,KeyWords!A:B,2,FALSE)</f>
+        <v>intoIframe</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>343</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="18" t="s">
-        <v>346</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
-      <c r="O127" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O127" s="5"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>327</v>
@@ -10386,19 +10242,16 @@
       <c r="E128" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F128" s="18" t="s">
-        <v>345</v>
+      <c r="F128" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H128" s="16" t="str">
-        <f>VLOOKUP(G128,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I128" s="23" t="s">
-        <v>92</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I128" s="17"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
@@ -10406,13 +10259,11 @@
         <v>346</v>
       </c>
       <c r="N128" s="5"/>
-      <c r="O128" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O128" s="5"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>332</v>
@@ -10427,30 +10278,30 @@
         <v>339</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H129" s="16" t="str">
         <f>VLOOKUP(G129,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I129" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N129" s="5"/>
-      <c r="O129" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O129" s="5"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>333</v>
@@ -10465,30 +10316,28 @@
         <v>339</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H130" s="16" t="str">
         <f>VLOOKUP(G130,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I130" s="20" t="s">
-        <v>516</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="18"/>
+      <c r="M130" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="N130" s="5"/>
-      <c r="O130" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O130" s="5"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>334</v>
@@ -10503,32 +10352,28 @@
         <v>339</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>351</v>
+        <v>142</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="H131" s="16" t="str">
         <f>VLOOKUP(G131,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I131" s="23" t="s">
+        <v>intoIframe</v>
+      </c>
+      <c r="I131" s="20" t="s">
         <v>515</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="18" t="s">
-        <v>352</v>
-      </c>
+      <c r="M131" s="18"/>
       <c r="N131" s="5"/>
-      <c r="O131" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O131" s="5"/>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>337</v>
@@ -10542,31 +10387,31 @@
       <c r="E132" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F132" s="19" t="s">
-        <v>517</v>
+      <c r="F132" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H132" s="16" t="str">
         <f>VLOOKUP(G132,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I132" s="23"/>
+        <v>inputText</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>514</v>
+      </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="19" t="s">
-        <v>518</v>
+      <c r="M132" s="18" t="s">
+        <v>352</v>
       </c>
       <c r="N132" s="5"/>
-      <c r="O132" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O132" s="5"/>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>338</v>
@@ -10580,31 +10425,29 @@
       <c r="E133" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>35</v>
+      <c r="F133" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H133" s="16" t="str">
         <f>VLOOKUP(G133,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I133" s="22" t="s">
-        <v>534</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I133" s="23"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
+      <c r="M133" s="19" t="s">
+        <v>517</v>
+      </c>
       <c r="N133" s="5"/>
-      <c r="O133" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O133" s="5"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>342</v>
@@ -10618,29 +10461,29 @@
       <c r="E134" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F134" s="18" t="s">
-        <v>152</v>
+      <c r="F134" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H134" s="16" t="str">
         <f>VLOOKUP(G134,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I134" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I134" s="22" t="s">
+        <v>533</v>
+      </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O134" s="5"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>344</v>
@@ -10655,30 +10498,26 @@
         <v>339</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H135" s="16" t="str">
         <f>VLOOKUP(G135,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="M135" s="5"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O135" s="5"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>347</v>
@@ -10693,7 +10532,7 @@
         <v>339</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>38</v>
@@ -10710,13 +10549,11 @@
         <v>176</v>
       </c>
       <c r="N136" s="5"/>
-      <c r="O136" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O136" s="5"/>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>350</v>
@@ -10730,31 +10567,29 @@
       <c r="E137" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>35</v>
+      <c r="F137" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H137" s="16" t="str">
         <f>VLOOKUP(G137,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I137" s="22" t="s">
-        <v>534</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
+      <c r="M137" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N137" s="5"/>
-      <c r="O137" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O137" s="5"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>353</v>
@@ -10768,31 +10603,29 @@
       <c r="E138" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F138" s="18" t="s">
-        <v>142</v>
+      <c r="F138" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H138" s="16" t="str">
         <f>VLOOKUP(G138,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I138" s="17" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I138" s="22" t="s">
+        <v>533</v>
       </c>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O138" s="5"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>354</v>
@@ -10807,30 +10640,28 @@
         <v>339</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H139" s="16" t="str">
         <f>VLOOKUP(G139,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I139" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="17" t="s">
-        <v>359</v>
-      </c>
+      <c r="M139" s="5"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O139" s="5"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>355</v>
@@ -10845,32 +10676,28 @@
         <v>339</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="H140" s="16" t="str">
         <f>VLOOKUP(G140,KeyWords!A:B,2,FALSE)</f>
-        <v>assertString</v>
-      </c>
-      <c r="I140" s="17" t="s">
-        <v>362</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N140" s="5"/>
-      <c r="O140" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="O140" s="5"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>356</v>
@@ -10878,91 +10705,91 @@
       <c r="C141" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H141" s="16" t="str">
         <f>VLOOKUP(G141,KeyWords!A:B,2,FALSE)</f>
-        <v>closeBrowser</v>
+        <v>assertString</v>
       </c>
       <c r="I141" s="17" t="s">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="17"/>
+      <c r="M141" s="17" t="s">
+        <v>363</v>
+      </c>
       <c r="N141" s="5"/>
-      <c r="O141" s="5" t="s">
-        <v>536</v>
-      </c>
+      <c r="O141" s="5"/>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>357</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>520</v>
+        <v>364</v>
       </c>
       <c r="H142" s="16" t="str">
         <f>VLOOKUP(G142,KeyWords!A:B,2,FALSE)</f>
-        <v>closeApp</v>
-      </c>
-      <c r="I142" s="5"/>
+        <v>closeBrowser</v>
+      </c>
+      <c r="I142" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="17"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="5" t="s">
-        <v>536</v>
-      </c>
+      <c r="O142" s="5"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H143" s="16" t="str">
         <f>VLOOKUP(G143,KeyWords!A:B,2,FALSE)</f>
@@ -10973,25 +10800,61 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H144" s="16" t="str">
+        <f>VLOOKUP(G144,KeyWords!A:B,2,FALSE)</f>
+        <v>closeApp</v>
+      </c>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G54 G56:G143" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G57:G144 G2:G55" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C54 C56:C143" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C57:C144 C2:C55" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D54 D56:D143" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D57:D144 D2:D55" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I27"/>
-    <hyperlink r:id="rId2" ref="I30"/>
+    <hyperlink r:id="rId1" ref="I28"/>
+    <hyperlink r:id="rId2" ref="I31"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
@@ -14690,7 +14553,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s">
         <v>462</v>
@@ -14698,18 +14561,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -14933,7 +14796,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="17"/>
       <c r="F1" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
@@ -14947,7 +14810,7 @@
     </row>
     <row ht="27" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>316</v>
@@ -14962,7 +14825,7 @@
         <v>297</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>197</v>
@@ -14980,12 +14843,12 @@
       <c r="M2" s="17"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row ht="27" r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>317</v>
@@ -15016,12 +14879,12 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>318</v>
@@ -15054,12 +14917,12 @@
       <c r="M4" s="18"/>
       <c r="N4" s="17"/>
       <c r="O4" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:15">
       <c r="A5" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>320</v>
@@ -15092,12 +14955,12 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row ht="27" r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>321</v>
@@ -15130,12 +14993,12 @@
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>326</v>
@@ -15168,12 +15031,12 @@
       <c r="M7" s="17"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:15">
       <c r="A8" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>327</v>
@@ -15208,12 +15071,12 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>332</v>
@@ -15246,12 +15109,12 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:15">
       <c r="A10" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>333</v>
@@ -15284,12 +15147,12 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>334</v>
@@ -15322,12 +15185,12 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row ht="27" r="12" spans="1:15">
       <c r="A12" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>337</v>
@@ -15360,7 +15223,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -584,6 +584,78 @@
         </r>
       </text>
     </comment>
+    <comment authorId="1" ref="G59" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I59" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+此处填写发货账户</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="K59" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据手机号查询出该账户发布的工单id</t>
+        </r>
+      </text>
+    </comment>
     <comment authorId="1" ref="G60" shapeId="0">
       <text>
         <r>
@@ -628,11 +700,205 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-此处填写发货账户</t>
+跳出来一个新窗口，切换时下标为1</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K60" shapeId="0">
+    <comment authorId="1" ref="G64" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I64" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+跳出来一个新窗口，切换时下标为1</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I71" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2表示需要关闭的窗口数目，关闭窗口时从右往左依次关闭</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I78" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+3000毫秒即3秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I87" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据手机号查询出该账户发布的工单id，再传入货名字段中</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I91" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+3000毫秒即3秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I93" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+3000毫秒即3秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="G98" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="I98" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,224 +919,6 @@
           </rPr>
           <t xml:space="preserve">
 根据手机号查询出该账户发布的工单id</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="G61" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I61" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-跳出来一个新窗口，切换时下标为1</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="G65" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I65" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-跳出来一个新窗口，切换时下标为1</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I72" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-2表示需要关闭的窗口数目，关闭窗口时从右往左依次关闭</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I79" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-3000毫秒即3秒</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I88" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据手机号查询出该账户发布的工单id，再传入货名字段中</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I92" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-3000毫秒即3秒</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I94" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-3000毫秒即3秒</t>
         </r>
       </text>
     </comment>
@@ -918,11 +966,35 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-根据手机号查询出该账户发布的工单id</t>
+跳出来一个新窗口，切换时下标为1</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G100" shapeId="0">
+    <comment authorId="1" ref="I102" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>joy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据手机号查询出该账户发布的托运单id</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="G114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I100" shapeId="0">
+    <comment authorId="1" ref="I114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -966,11 +1038,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-跳出来一个新窗口，切换时下标为1</t>
+attribute属性</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I103" shapeId="0">
+    <comment authorId="1" ref="K114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -990,11 +1062,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-根据手机号查询出该账户发布的托运单id</t>
+根据手机号查询出该账户发布的工单id</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G115" shapeId="0">
+    <comment authorId="1" ref="G124" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I115" shapeId="0">
+    <comment authorId="1" ref="I124" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1038,11 +1110,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-attribute属性</t>
+此处填写发货账户</t>
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K115" shapeId="0">
+    <comment authorId="1" ref="K124" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,79 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G125" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-多表达式单击：根据元素属性先捞取所有数据，再遍历数据，捞取符合特定条件的数据</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I125" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-此处填写发货账户</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="K125" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>joy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据手机号查询出该账户发布的工单id</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="I132" shapeId="0">
+    <comment authorId="1" ref="I131" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2305,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="542">
   <si>
     <t>测试用例</t>
   </si>
@@ -4862,9 +4862,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试用例执行失败</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4936,20 +4933,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>login_003</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>test143</t>
-  </si>
-  <si>
-    <t>login_002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试步骤执行失败</t>
-  </si>
-  <si>
     <r>
       <t>1525882466</t>
     </r>
@@ -4975,8 +4958,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>login_002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>测试用例执行成功</t>
+  </si>
+  <si>
+    <t>测试用例执行失败</t>
   </si>
 </sst>
 </file>
@@ -5537,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -5554,10 +5539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:P143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A73" sqref="A73:A83"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B55" sqref="B55:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5663,7 +5648,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>34</v>
@@ -5678,7 +5663,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>38</v>
@@ -5692,7 +5677,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="20" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
@@ -5701,7 +5686,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -5804,7 +5789,7 @@
         <v>sleep</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -5880,7 +5865,7 @@
         <v>inputText</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -5998,7 +5983,7 @@
         <v>sleep</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -6011,7 +5996,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>61</v>
@@ -6045,11 +6030,13 @@
         <v>475</v>
       </c>
       <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>62</v>
@@ -6081,11 +6068,13 @@
         <v>67</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>65</v>
@@ -6119,11 +6108,13 @@
         <v>490</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>68</v>
@@ -6155,11 +6146,13 @@
         <v>75</v>
       </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>70</v>
@@ -6193,11 +6186,13 @@
         <v>80</v>
       </c>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>73</v>
@@ -6231,11 +6226,13 @@
         <v>84</v>
       </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>76</v>
@@ -6267,11 +6264,13 @@
         <v>477</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="O18" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>77</v>
@@ -6303,11 +6302,13 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>81</v>
@@ -6341,11 +6342,13 @@
         <v>489</v>
       </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="O20" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>85</v>
@@ -6379,11 +6382,13 @@
         <v>93</v>
       </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="O21" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>87</v>
@@ -6408,18 +6413,20 @@
         <v>sleep</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>90</v>
@@ -6451,11 +6458,13 @@
         <v>491</v>
       </c>
       <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="O23" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>94</v>
@@ -6489,11 +6498,13 @@
         <v>492</v>
       </c>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="O24" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>96</v>
@@ -6525,11 +6536,13 @@
         <v>101</v>
       </c>
       <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>99</v>
@@ -6554,18 +6567,20 @@
         <v>sleep</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>102</v>
@@ -6598,11 +6613,13 @@
       <c r="K27" s="17"/>
       <c r="L27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="O27" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>103</v>
@@ -6634,11 +6651,13 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>110</v>
@@ -6670,11 +6689,13 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>114</v>
@@ -6706,11 +6727,13 @@
         <v>118</v>
       </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>115</v>
@@ -6744,11 +6767,13 @@
         <v>118</v>
       </c>
       <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>119</v>
@@ -6780,11 +6805,13 @@
         <v>123</v>
       </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>121</v>
@@ -6818,11 +6845,13 @@
         <v>123</v>
       </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="O33" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>124</v>
@@ -6854,11 +6883,13 @@
         <v>129</v>
       </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>126</v>
@@ -6890,11 +6921,13 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>127</v>
@@ -6926,11 +6959,13 @@
         <v>134</v>
       </c>
       <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>130</v>
@@ -6962,11 +6997,13 @@
         <v>138</v>
       </c>
       <c r="N37" s="5"/>
-      <c r="O37" s="20"/>
+      <c r="O37" s="20" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>132</v>
@@ -6998,11 +7035,13 @@
       <c r="L38" s="5"/>
       <c r="M38" s="17"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>135</v>
@@ -7034,11 +7073,13 @@
       <c r="L39" s="5"/>
       <c r="M39" s="17"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+      <c r="O39" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row ht="27" r="40" spans="1:15">
       <c r="A40" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>139</v>
@@ -7076,11 +7117,13 @@
         <v>493</v>
       </c>
       <c r="N40" s="20"/>
-      <c r="O40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>140</v>
@@ -7110,11 +7153,13 @@
       <c r="L41" s="5"/>
       <c r="M41" s="18"/>
       <c r="N41" s="17"/>
-      <c r="O41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row ht="27" r="42" spans="1:15">
       <c r="A42" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>144</v>
@@ -7147,11 +7192,13 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="17"/>
-      <c r="O42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>151</v>
@@ -7183,11 +7230,13 @@
         <v>158</v>
       </c>
       <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>153</v>
@@ -7221,11 +7270,13 @@
         <v>158</v>
       </c>
       <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="O44" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>156</v>
@@ -7259,11 +7310,13 @@
         <v>164</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
+      <c r="O45" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>159</v>
@@ -7295,11 +7348,13 @@
         <v>167</v>
       </c>
       <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>162</v>
@@ -7333,11 +7388,13 @@
         <v>167</v>
       </c>
       <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>165</v>
@@ -7367,11 +7424,13 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="O48" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>168</v>
@@ -7403,11 +7462,13 @@
         <v>173</v>
       </c>
       <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>170</v>
@@ -7439,11 +7500,13 @@
         <v>176</v>
       </c>
       <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>171</v>
@@ -7473,11 +7536,13 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="O51" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>174</v>
@@ -7509,11 +7574,13 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>177</v>
@@ -7545,11 +7612,13 @@
         <v>500</v>
       </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>178</v>
@@ -7581,11 +7650,13 @@
         <v>501</v>
       </c>
       <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="O54" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>179</v>
@@ -7617,55 +7688,89 @@
         <v>502</v>
       </c>
       <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
+      <c r="O55" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="C56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="16" t="str">
+        <f>VLOOKUP(G56,KeyWords!A:B,2,FALSE)</f>
+        <v>sleep</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>35</v>
+        <v>188</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H57" s="16" t="str">
         <f>VLOOKUP(G57,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J57" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="17"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
+      <c r="O57" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>186</v>
@@ -7680,28 +7785,30 @@
         <v>188</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H58" s="16" t="str">
         <f>VLOOKUP(G58,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J58" s="17"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
+      <c r="M58" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="O58" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row ht="27" r="59" spans="1:15">
       <c r="A59" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>187</v>
@@ -7716,28 +7823,36 @@
         <v>188</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="H59" s="16" t="str">
         <f>VLOOKUP(G59,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+        <v>transIdMultipleExpressionClick</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L59" s="5"/>
-      <c r="M59" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-    </row>
-    <row ht="27" r="60" spans="1:15">
+      <c r="M59" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" s="17"/>
+      <c r="O59" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>189</v>
@@ -7752,34 +7867,30 @@
         <v>188</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="H60" s="16" t="str">
         <f>VLOOKUP(G60,KeyWords!A:B,2,FALSE)</f>
-        <v>transIdMultipleExpressionClick</v>
+        <v>switchWindow</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K60" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="18" t="s">
-        <v>149</v>
-      </c>
+      <c r="M60" s="18"/>
       <c r="N60" s="17"/>
-      <c r="O60" s="5"/>
+      <c r="O60" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>192</v>
@@ -7793,29 +7904,31 @@
       <c r="E61" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>197</v>
+      <c r="F61" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="H61" s="16" t="str">
         <f>VLOOKUP(G61,KeyWords!A:B,2,FALSE)</f>
-        <v>switchWindow</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" s="17"/>
+        <v>sleep</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="J61" s="5"/>
       <c r="K61" s="17"/>
       <c r="L61" s="5"/>
       <c r="M61" s="18"/>
       <c r="N61" s="17"/>
-      <c r="O61" s="5"/>
+      <c r="O61" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>193</v>
@@ -7829,29 +7942,31 @@
       <c r="E62" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>35</v>
+      <c r="F62" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H62" s="16" t="str">
         <f>VLOOKUP(G62,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>499</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="17"/>
       <c r="L62" s="5"/>
       <c r="M62" s="18"/>
       <c r="N62" s="17"/>
-      <c r="O62" s="5"/>
+      <c r="O62" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>195</v>
@@ -7865,29 +7980,31 @@
       <c r="E63" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="18" t="s">
-        <v>142</v>
+      <c r="F63" s="20" t="s">
+        <v>497</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H63" s="16" t="str">
         <f>VLOOKUP(G63,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I63" s="24"/>
       <c r="J63" s="5"/>
       <c r="K63" s="17"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="18"/>
+      <c r="M63" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="N63" s="17"/>
-      <c r="O63" s="5"/>
+      <c r="O63" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>196</v>
@@ -7901,29 +8018,31 @@
       <c r="E64" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F64" s="20" t="s">
-        <v>497</v>
+      <c r="F64" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="H64" s="16" t="str">
         <f>VLOOKUP(G64,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="5"/>
+        <v>switchWindow</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="J64" s="17"/>
       <c r="K64" s="17"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="19" t="s">
-        <v>496</v>
-      </c>
+      <c r="M64" s="18"/>
       <c r="N64" s="17"/>
-      <c r="O64" s="5"/>
+      <c r="O64" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>198</v>
@@ -7938,28 +8057,30 @@
         <v>188</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="H65" s="16" t="str">
         <f>VLOOKUP(G65,KeyWords!A:B,2,FALSE)</f>
-        <v>switchWindow</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="5"/>
+      <c r="M65" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>199</v>
@@ -7974,7 +8095,7 @@
         <v>188</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>38</v>
@@ -7988,14 +8109,16 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
+      <c r="O66" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>202</v>
@@ -8009,29 +8132,31 @@
       <c r="E67" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="18" t="s">
-        <v>203</v>
+      <c r="F67" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H67" s="16" t="str">
         <f>VLOOKUP(G67,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I67" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="K67" s="17"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>205</v>
@@ -8045,29 +8170,31 @@
       <c r="E68" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>35</v>
+      <c r="F68" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="H68" s="16" t="str">
         <f>VLOOKUP(G68,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>499</v>
-      </c>
+        <v>javaScriptClick</v>
+      </c>
+      <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="17"/>
+      <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="5"/>
+      <c r="M68" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>207</v>
@@ -8081,29 +8208,31 @@
       <c r="E69" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F69" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>209</v>
+      <c r="F69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="H69" s="16" t="str">
         <f>VLOOKUP(G69,KeyWords!A:B,2,FALSE)</f>
-        <v>javaScriptClick</v>
-      </c>
-      <c r="I69" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="K69" s="17"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>210</v>
@@ -8117,29 +8246,29 @@
       <c r="E70" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>35</v>
+      <c r="F70" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="H70" s="16" t="str">
         <f>VLOOKUP(G70,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>499</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="17"/>
+      <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>213</v>
@@ -8153,63 +8282,67 @@
       <c r="E71" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="18" t="s">
-        <v>152</v>
+      <c r="F71" s="33" t="s">
+        <v>529</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>152</v>
+        <v>527</v>
       </c>
       <c r="H71" s="16" t="str">
         <f>VLOOKUP(G71,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I71" s="5"/>
+        <v>closeWindow</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>526</v>
+      </c>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>105</v>
+        <v>29</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>527</v>
+        <v>31</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>479</v>
       </c>
       <c r="H72" s="16" t="str">
         <f>VLOOKUP(G72,KeyWords!A:B,2,FALSE)</f>
-        <v>closeWindow</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>526</v>
-      </c>
+        <v>openApp</v>
+      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="17"/>
+      <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>217</v>
@@ -8224,20 +8357,22 @@
         <v>31</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>479</v>
+        <v>37</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="H73" s="16" t="str">
         <f>VLOOKUP(G73,KeyWords!A:B,2,FALSE)</f>
-        <v>openApp</v>
+        <v>buttonClick</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
+      <c r="M73" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5" t="s">
         <v>478</v>
@@ -8245,7 +8380,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>218</v>
@@ -8260,30 +8395,30 @@
         <v>31</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H74" s="16" t="str">
         <f>VLOOKUP(G74,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I74" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="N74" s="5"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>220</v>
@@ -8291,37 +8426,39 @@
       <c r="C75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H75" s="16" t="str">
         <f>VLOOKUP(G75,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
+        <v>swapApp</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="17"/>
+        <v>42</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
       <c r="O75" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>221</v>
@@ -8329,31 +8466,29 @@
       <c r="C76" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H76" s="16" t="str">
         <f>VLOOKUP(G76,KeyWords!A:B,2,FALSE)</f>
-        <v>swapApp</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J76" s="24" t="s">
-        <v>43</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
+      <c r="M76" s="17" t="s">
+        <v>223</v>
+      </c>
       <c r="N76" s="5"/>
       <c r="O76" s="5" t="s">
         <v>478</v>
@@ -8361,7 +8496,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>222</v>
@@ -8376,22 +8511,22 @@
         <v>31</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H77" s="16" t="str">
         <f>VLOOKUP(G77,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I77" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="17" t="s">
-        <v>223</v>
-      </c>
+      <c r="M77" s="17"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5" t="s">
         <v>478</v>
@@ -8399,7 +8534,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>224</v>
@@ -8407,29 +8542,29 @@
       <c r="C78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>35</v>
+      <c r="F78" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H78" s="16" t="str">
         <f>VLOOKUP(G78,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>499</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="17"/>
+      <c r="M78" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="N78" s="5"/>
       <c r="O78" s="5" t="s">
         <v>478</v>
@@ -8437,7 +8572,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>225</v>
@@ -8452,21 +8587,23 @@
         <v>31</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H79" s="16" t="str">
         <f>VLOOKUP(G79,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I79" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>230</v>
+      </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N79" s="5"/>
       <c r="O79" s="5" t="s">
@@ -8475,7 +8612,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>228</v>
@@ -8490,7 +8627,7 @@
         <v>31</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>51</v>
@@ -8500,13 +8637,13 @@
         <v>inputText</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5" t="s">
@@ -8515,7 +8652,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>232</v>
@@ -8530,23 +8667,21 @@
         <v>31</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H81" s="16" t="str">
         <f>VLOOKUP(G81,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I81" s="23" t="s">
-        <v>480</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N81" s="5"/>
       <c r="O81" s="5" t="s">
@@ -8555,7 +8690,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>235</v>
@@ -8563,29 +8698,29 @@
       <c r="C82" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F82" s="17" t="s">
-        <v>237</v>
+      <c r="F82" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H82" s="16" t="str">
         <f>VLOOKUP(G82,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I82" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="17" t="s">
-        <v>238</v>
-      </c>
+      <c r="M82" s="17"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5" t="s">
         <v>478</v>
@@ -8593,7 +8728,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="14" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>236</v>
@@ -8601,29 +8736,29 @@
       <c r="C83" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>35</v>
+        <v>141</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>242</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H83" s="16" t="str">
         <f>VLOOKUP(G83,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>499</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="17"/>
+      <c r="M83" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5" t="s">
         <v>478</v>
@@ -8631,7 +8766,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>239</v>
@@ -8646,7 +8781,7 @@
         <v>141</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>38</v>
@@ -8660,14 +8795,16 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
+      <c r="O84" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>241</v>
@@ -8675,35 +8812,37 @@
       <c r="C85" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F85" s="17" t="s">
-        <v>246</v>
+      <c r="F85" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H85" s="16" t="str">
         <f>VLOOKUP(G85,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I85" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="17" t="s">
-        <v>247</v>
-      </c>
+      <c r="M85" s="17"/>
       <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
+      <c r="O85" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>244</v>
@@ -8711,35 +8850,39 @@
       <c r="C86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>35</v>
+      <c r="F86" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H86" s="16" t="str">
         <f>VLOOKUP(G86,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>499</v>
+        <v>buttonClick</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="17"/>
+      <c r="M86" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
+      <c r="O86" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>245</v>
@@ -8754,17 +8897,17 @@
         <v>141</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="H87" s="16" t="str">
         <f>VLOOKUP(G87,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>transIdClick</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>251</v>
+        <v>481</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -8777,7 +8920,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>248</v>
@@ -8792,30 +8935,28 @@
         <v>141</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="H88" s="16" t="str">
         <f>VLOOKUP(G88,KeyWords!A:B,2,FALSE)</f>
-        <v>transIdClick</v>
-      </c>
-      <c r="I88" s="23" t="s">
-        <v>481</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>249</v>
@@ -8830,7 +8971,7 @@
         <v>141</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>38</v>
@@ -8839,19 +8980,21 @@
         <f>VLOOKUP(G89,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I89" s="17"/>
+      <c r="I89" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>253</v>
@@ -8866,7 +9009,7 @@
         <v>141</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>38</v>
@@ -8875,21 +9018,19 @@
         <f>VLOOKUP(G90,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I90" s="17" t="s">
-        <v>261</v>
-      </c>
+      <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="17" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>256</v>
@@ -8903,29 +9044,29 @@
       <c r="E91" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>263</v>
+      <c r="F91" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H91" s="16" t="str">
         <f>VLOOKUP(G91,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I91" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>503</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="17" t="s">
-        <v>264</v>
-      </c>
+      <c r="M91" s="17"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>259</v>
@@ -8939,29 +9080,29 @@
       <c r="E92" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>35</v>
+      <c r="F92" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H92" s="16" t="str">
         <f>VLOOKUP(G92,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>503</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="17"/>
+      <c r="M92" s="20" t="s">
+        <v>536</v>
+      </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>262</v>
@@ -8975,54 +9116,54 @@
       <c r="E93" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F93" s="20" t="s">
-        <v>522</v>
+      <c r="F93" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H93" s="16" t="str">
         <f>VLOOKUP(G93,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I93" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="20" t="s">
-        <v>537</v>
-      </c>
+      <c r="M93" s="17"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>35</v>
+        <v>270</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H94" s="16" t="str">
         <f>VLOOKUP(G94,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I94" s="24" t="s">
-        <v>48</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -9033,7 +9174,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>268</v>
@@ -9048,28 +9189,28 @@
         <v>270</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H95" s="16" t="str">
         <f>VLOOKUP(G95,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="17"/>
+      <c r="M95" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>269</v>
@@ -9083,29 +9224,29 @@
       <c r="E96" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="18" t="s">
-        <v>272</v>
+      <c r="F96" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H96" s="16" t="str">
         <f>VLOOKUP(G96,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I96" s="17"/>
+        <v>sleep</v>
+      </c>
+      <c r="I96" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>271</v>
@@ -9119,29 +9260,29 @@
       <c r="E97" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>35</v>
+      <c r="F97" s="20" t="s">
+        <v>482</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H97" s="16" t="str">
         <f>VLOOKUP(G97,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I97" s="22" t="s">
-        <v>533</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I97" s="23"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
+      <c r="M97" s="20" t="s">
+        <v>483</v>
+      </c>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>274</v>
@@ -9155,29 +9296,31 @@
       <c r="E98" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F98" s="20" t="s">
-        <v>482</v>
+      <c r="F98" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="H98" s="16" t="str">
         <f>VLOOKUP(G98,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="5"/>
+        <v>transIdClick</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J98" s="17"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="N98" s="5"/>
+      <c r="M98" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="N98" s="17"/>
       <c r="O98" s="5"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>276</v>
@@ -9192,30 +9335,28 @@
         <v>270</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="H99" s="16" t="str">
         <f>VLOOKUP(G99,KeyWords!A:B,2,FALSE)</f>
-        <v>transIdClick</v>
-      </c>
-      <c r="I99" s="25" t="s">
-        <v>52</v>
+        <v>switchWindow</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="J99" s="17"/>
-      <c r="K99" s="5"/>
+      <c r="K99" s="17"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="17" t="s">
-        <v>484</v>
-      </c>
+      <c r="M99" s="18"/>
       <c r="N99" s="17"/>
       <c r="O99" s="5"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>280</v>
@@ -9230,17 +9371,17 @@
         <v>270</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="H100" s="16" t="str">
         <f>VLOOKUP(G100,KeyWords!A:B,2,FALSE)</f>
-        <v>switchWindow</v>
+        <v>intoIframe</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
@@ -9251,7 +9392,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>281</v>
@@ -9265,29 +9406,29 @@
       <c r="E101" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F101" s="18" t="s">
-        <v>142</v>
+      <c r="F101" s="19" t="s">
+        <v>485</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H101" s="16" t="str">
         <f>VLOOKUP(G101,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I101" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I101" s="23"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="18"/>
+      <c r="M101" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="N101" s="17"/>
       <c r="O101" s="5"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>282</v>
@@ -9301,29 +9442,30 @@
       <c r="E102" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F102" s="19" t="s">
-        <v>485</v>
+      <c r="F102" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H102" s="16" t="str">
-        <f>VLOOKUP(G102,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I102" s="23"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="H102" t="s">
+        <v>430</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="N102" s="17"/>
+      <c r="M102" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>283</v>
@@ -9338,29 +9480,28 @@
         <v>270</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="H103" t="s">
-        <v>430</v>
-      </c>
-      <c r="I103" s="23" t="s">
-        <v>52</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H103" s="16" t="str">
+        <f>VLOOKUP(G103,KeyWords!A:B,2,FALSE)</f>
+        <v>buttonClick</v>
+      </c>
+      <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="17" t="s">
-        <v>487</v>
+        <v>290</v>
       </c>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>284</v>
@@ -9375,28 +9516,26 @@
         <v>270</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H104" s="16" t="str">
         <f>VLOOKUP(G104,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="17" t="s">
-        <v>290</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>288</v>
@@ -9411,26 +9550,28 @@
         <v>270</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H105" s="16" t="str">
         <f>VLOOKUP(G105,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
+        <v>buttonClick</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
+      <c r="M105" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>291</v>
@@ -9444,29 +9585,29 @@
       <c r="E106" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F106" s="18" t="s">
-        <v>293</v>
+      <c r="F106" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H106" s="16" t="str">
         <f>VLOOKUP(G106,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I106" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I106" s="22" t="s">
+        <v>535</v>
+      </c>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="K106" s="17"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="N106" s="5"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="17"/>
       <c r="O106" s="5"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>292</v>
@@ -9480,29 +9621,29 @@
       <c r="E107" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>35</v>
+      <c r="F107" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H107" s="16" t="str">
         <f>VLOOKUP(G107,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>536</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="J107" s="5"/>
-      <c r="K107" s="17"/>
+      <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>294</v>
@@ -9514,31 +9655,31 @@
         <v>105</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>142</v>
+        <v>298</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H108" s="16" t="str">
         <f>VLOOKUP(G108,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="17"/>
+      <c r="M108" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>295</v>
@@ -9553,28 +9694,26 @@
         <v>297</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H109" s="16" t="str">
         <f>VLOOKUP(G109,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="17" t="s">
-        <v>299</v>
-      </c>
+      <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>296</v>
@@ -9589,26 +9728,28 @@
         <v>297</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H110" s="16" t="str">
         <f>VLOOKUP(G110,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
+        <v>buttonClick</v>
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
+      <c r="M110" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>300</v>
@@ -9622,29 +9763,29 @@
       <c r="E111" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F111" s="18" t="s">
-        <v>175</v>
+      <c r="F111" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H111" s="16" t="str">
         <f>VLOOKUP(G111,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I111" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>506</v>
+      </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="M111" s="17"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>301</v>
@@ -9656,20 +9797,20 @@
         <v>105</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>35</v>
+        <v>306</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H112" s="16" t="str">
         <f>VLOOKUP(G112,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I112" s="22" t="s">
-        <v>506</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -9680,7 +9821,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>302</v>
@@ -9695,28 +9836,28 @@
         <v>306</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H113" s="16" t="str">
         <f>VLOOKUP(G113,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I113" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="17"/>
+      <c r="M113" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15">
+    <row ht="27" r="114" spans="1:15">
       <c r="A114" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>303</v>
@@ -9734,25 +9875,31 @@
         <v>319</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="H114" s="16" t="str">
         <f>VLOOKUP(G114,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+        <v>itemIdMultipleExpressionClick</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J114" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K114" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L114" s="5"/>
-      <c r="M114" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="N114" s="5"/>
+      <c r="M114" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="N114" s="17"/>
       <c r="O114" s="5"/>
     </row>
-    <row ht="27" r="115" spans="1:15">
+    <row r="115" spans="1:15">
       <c r="A115" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>304</v>
@@ -9767,34 +9914,26 @@
         <v>306</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>319</v>
+        <v>152</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="H115" s="16" t="str">
         <f>VLOOKUP(G115,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
-      </c>
-      <c r="I115" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J115" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K115" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="N115" s="17"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>305</v>
@@ -9808,17 +9947,19 @@
       <c r="E116" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F116" s="18" t="s">
-        <v>152</v>
+      <c r="F116" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H116" s="16" t="str">
         <f>VLOOKUP(G116,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I116" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -9828,7 +9969,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>307</v>
@@ -9842,29 +9983,29 @@
       <c r="E117" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>35</v>
+      <c r="F117" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H117" s="16" t="str">
         <f>VLOOKUP(G117,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I117" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I117" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="J117" s="17"/>
+      <c r="K117" s="18"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="17"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15">
+    <row ht="27" r="118" spans="1:15">
       <c r="A118" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>310</v>
@@ -9879,28 +10020,30 @@
         <v>306</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>142</v>
+        <v>466</v>
       </c>
       <c r="H118" s="16" t="str">
         <f>VLOOKUP(G118,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I118" s="23" t="s">
-        <v>511</v>
+        <v>getSelectDataByText</v>
+      </c>
+      <c r="I118" s="32" t="s">
+        <v>330</v>
       </c>
       <c r="J118" s="17"/>
       <c r="K118" s="18"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="18"/>
+      <c r="M118" s="18" t="s">
+        <v>331</v>
+      </c>
       <c r="N118" s="17"/>
       <c r="O118" s="5"/>
     </row>
-    <row ht="27" r="119" spans="1:15">
+    <row r="119" spans="1:15">
       <c r="A119" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>311</v>
@@ -9915,30 +10058,26 @@
         <v>306</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>328</v>
+        <v>152</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>466</v>
+        <v>152</v>
       </c>
       <c r="H119" s="16" t="str">
         <f>VLOOKUP(G119,KeyWords!A:B,2,FALSE)</f>
-        <v>getSelectDataByText</v>
-      </c>
-      <c r="I119" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="J119" s="17"/>
-      <c r="K119" s="18"/>
+        <v>outIframe</v>
+      </c>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="N119" s="17"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>513</v>
@@ -9953,26 +10092,28 @@
         <v>306</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H120" s="16" t="str">
         <f>VLOOKUP(G120,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
+        <v>buttonClick</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="18"/>
+      <c r="M120" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>315</v>
@@ -9987,7 +10128,7 @@
         <v>306</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="G121" s="15" t="s">
         <v>38</v>
@@ -10001,14 +10142,14 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="18" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>316</v>
@@ -10022,29 +10163,29 @@
       <c r="E122" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F122" s="18" t="s">
-        <v>335</v>
+      <c r="F122" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H122" s="16" t="str">
         <f>VLOOKUP(G122,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I122" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I122" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="18" t="s">
-        <v>336</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>317</v>
@@ -10056,31 +10197,31 @@
         <v>105</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>35</v>
+        <v>339</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H123" s="16" t="str">
         <f>VLOOKUP(G123,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I123" s="22" t="s">
-        <v>533</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
+      <c r="M123" s="17"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15">
+    <row ht="27" r="124" spans="1:15">
       <c r="A124" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>318</v>
@@ -10095,28 +10236,34 @@
         <v>339</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="H124" s="16" t="str">
         <f>VLOOKUP(G124,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
+        <v>itemIdMultipleExpressionClick</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="J124" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K124" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L124" s="5"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="5"/>
+      <c r="M124" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="N124" s="17"/>
       <c r="O124" s="5"/>
     </row>
-    <row ht="27" r="125" spans="1:15">
+    <row r="125" spans="1:15">
       <c r="A125" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>320</v>
@@ -10131,34 +10278,26 @@
         <v>339</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="H125" s="16" t="str">
         <f>VLOOKUP(G125,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
-      </c>
-      <c r="I125" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J125" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K125" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="N125" s="17"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>321</v>
@@ -10173,16 +10312,18 @@
         <v>339</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H126" s="16" t="str">
         <f>VLOOKUP(G126,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I126" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>343</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -10192,7 +10333,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>326</v>
@@ -10206,29 +10347,28 @@
       <c r="E127" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F127" s="18" t="s">
-        <v>142</v>
+      <c r="F127" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H127" s="16" t="str">
-        <f>VLOOKUP(G127,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I127" s="17" t="s">
-        <v>343</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I127" s="17"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
+      <c r="M127" s="18" t="s">
+        <v>346</v>
+      </c>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>327</v>
@@ -10242,16 +10382,19 @@
       <c r="E128" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F128" s="19" t="s">
-        <v>510</v>
+      <c r="F128" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I128" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="H128" s="16" t="str">
+        <f>VLOOKUP(G128,KeyWords!A:B,2,FALSE)</f>
+        <v>inputText</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
@@ -10263,7 +10406,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>332</v>
@@ -10278,30 +10421,28 @@
         <v>339</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H129" s="16" t="str">
         <f>VLOOKUP(G129,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I129" s="23" t="s">
-        <v>92</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="18" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>333</v>
@@ -10316,28 +10457,28 @@
         <v>339</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H130" s="16" t="str">
         <f>VLOOKUP(G130,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I130" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>515</v>
+      </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="18" t="s">
-        <v>349</v>
-      </c>
+      <c r="M130" s="18"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>334</v>
@@ -10352,28 +10493,30 @@
         <v>339</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="H131" s="16" t="str">
         <f>VLOOKUP(G131,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I131" s="20" t="s">
-        <v>515</v>
+        <v>inputText</v>
+      </c>
+      <c r="I131" s="23" t="s">
+        <v>514</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="18"/>
+      <c r="M131" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>337</v>
@@ -10387,31 +10530,29 @@
       <c r="E132" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F132" s="18" t="s">
-        <v>351</v>
+      <c r="F132" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H132" s="16" t="str">
         <f>VLOOKUP(G132,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I132" s="23" t="s">
-        <v>514</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I132" s="23"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="18" t="s">
-        <v>352</v>
+      <c r="M132" s="19" t="s">
+        <v>517</v>
       </c>
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>338</v>
@@ -10425,29 +10566,29 @@
       <c r="E133" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F133" s="19" t="s">
-        <v>516</v>
+      <c r="F133" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H133" s="16" t="str">
         <f>VLOOKUP(G133,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I133" s="23"/>
+        <v>sleep</v>
+      </c>
+      <c r="I133" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="19" t="s">
-        <v>517</v>
-      </c>
+      <c r="M133" s="5"/>
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>342</v>
@@ -10461,19 +10602,17 @@
       <c r="E134" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>35</v>
+      <c r="F134" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="H134" s="16" t="str">
         <f>VLOOKUP(G134,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I134" s="22" t="s">
-        <v>533</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
@@ -10483,7 +10622,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>344</v>
@@ -10498,26 +10637,28 @@
         <v>339</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H135" s="16" t="str">
         <f>VLOOKUP(G135,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
+        <v>buttonClick</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
+      <c r="M135" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>347</v>
@@ -10532,7 +10673,7 @@
         <v>339</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>38</v>
@@ -10553,7 +10694,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>350</v>
@@ -10567,29 +10708,29 @@
       <c r="E137" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F137" s="18" t="s">
-        <v>335</v>
+      <c r="F137" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H137" s="16" t="str">
         <f>VLOOKUP(G137,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I137" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I137" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>353</v>
@@ -10603,18 +10744,18 @@
       <c r="E138" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>35</v>
+      <c r="F138" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H138" s="16" t="str">
         <f>VLOOKUP(G138,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I138" s="22" t="s">
-        <v>533</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -10625,7 +10766,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>354</v>
@@ -10640,28 +10781,28 @@
         <v>339</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>142</v>
+        <v>358</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H139" s="16" t="str">
         <f>VLOOKUP(G139,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I139" s="17" t="s">
-        <v>143</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
+      <c r="M139" s="17" t="s">
+        <v>359</v>
+      </c>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>355</v>
@@ -10676,28 +10817,30 @@
         <v>339</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="H140" s="16" t="str">
         <f>VLOOKUP(G140,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I140" s="5"/>
+        <v>assertString</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>362</v>
+      </c>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="17" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>356</v>
@@ -10705,88 +10848,86 @@
       <c r="C141" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="17" t="s">
         <v>105</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H141" s="16" t="str">
         <f>VLOOKUP(G141,KeyWords!A:B,2,FALSE)</f>
-        <v>assertString</v>
+        <v>closeBrowser</v>
       </c>
       <c r="I141" s="17" t="s">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="17" t="s">
-        <v>363</v>
-      </c>
+      <c r="M141" s="17"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="14" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>357</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>364</v>
+        <v>519</v>
       </c>
       <c r="H142" s="16" t="str">
         <f>VLOOKUP(G142,KeyWords!A:B,2,FALSE)</f>
-        <v>closeBrowser</v>
-      </c>
-      <c r="I142" s="17" t="s">
-        <v>108</v>
-      </c>
+        <v>closeApp</v>
+      </c>
+      <c r="I142" s="24"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="17"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
+      <c r="O142" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="14" t="s">
         <v>530</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>519</v>
@@ -10795,60 +10936,26 @@
         <f>VLOOKUP(G143,KeyWords!A:B,2,FALSE)</f>
         <v>closeApp</v>
       </c>
-      <c r="I143" s="5"/>
+      <c r="I143" s="24"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="17"/>
-      <c r="N143" s="5"/>
+      <c r="N143" s="17"/>
       <c r="O143" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="F144" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="H144" s="16" t="str">
-        <f>VLOOKUP(G144,KeyWords!A:B,2,FALSE)</f>
-        <v>closeApp</v>
-      </c>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="5"/>
+        <v>478</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G57:G144 G2:G55" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G143" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C57:C144 C2:C55" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C143" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D57:D144 D2:D55" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D143" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\UiAutomation\WuLiuUiAutomation\excel_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7950" windowWidth="20385" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" r:id="rId1" sheetId="1"/>
-    <sheet name="HuoZhuSteps" r:id="rId2" sheetId="4"/>
-    <sheet name="GouShuiNiStep" r:id="rId3" sheetId="2"/>
-    <sheet name="KeyWords" r:id="rId4" sheetId="3"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="5"/>
+    <sheet name="Suite" sheetId="1" r:id="rId1"/>
+    <sheet name="HuoZhuSteps" sheetId="4" r:id="rId2"/>
+    <sheet name="GouShuiNiStep" sheetId="2" r:id="rId3"/>
+    <sheet name="KeyWords" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E1" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G1" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H1" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M1" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N1" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O1" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I5" shapeId="0">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I6" shapeId="0">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I27" shapeId="0">
+    <comment ref="I27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="J27" shapeId="0">
+    <comment ref="J27" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G37" shapeId="0">
+    <comment ref="G37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G40" shapeId="0">
+    <comment ref="G40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K40" shapeId="0">
+    <comment ref="K40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J42" shapeId="0">
+    <comment ref="J42" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I44" shapeId="0">
+    <comment ref="I44" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G59" shapeId="0">
+    <comment ref="G59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I59" shapeId="0">
+    <comment ref="I59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K59" shapeId="0">
+    <comment ref="K59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G60" shapeId="0">
+    <comment ref="G60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I60" shapeId="0">
+    <comment ref="I60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G64" shapeId="0">
+    <comment ref="G64" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I64" shapeId="0">
+    <comment ref="I64" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I71" shapeId="0">
+    <comment ref="I71" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I78" shapeId="0">
+    <comment ref="I78" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I87" shapeId="0">
+    <comment ref="I87" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I91" shapeId="0">
+    <comment ref="I91" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I93" shapeId="0">
+    <comment ref="I93" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G98" shapeId="0">
+    <comment ref="G98" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I98" shapeId="0">
+    <comment ref="I98" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G99" shapeId="0">
+    <comment ref="G99" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I99" shapeId="0">
+    <comment ref="I99" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I102" shapeId="0">
+    <comment ref="I102" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G114" shapeId="0">
+    <comment ref="G114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I114" shapeId="0">
+    <comment ref="I114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K114" shapeId="0">
+    <comment ref="K114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G124" shapeId="0">
+    <comment ref="G125" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I124" shapeId="0">
+    <comment ref="I125" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K124" shapeId="0">
+    <comment ref="K125" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I131" shapeId="0">
+    <comment ref="I132" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1176,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E1" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1296,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G1" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H1" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M1" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N1" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O1" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I14" shapeId="0">
+    <comment ref="I14" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I19" shapeId="0">
+    <comment ref="I19" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J19" shapeId="0">
+    <comment ref="J19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G30" shapeId="0">
+    <comment ref="G30" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G33" shapeId="0">
+    <comment ref="G33" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1608,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="K33" shapeId="0">
+    <comment ref="K33" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="K35" shapeId="0">
+    <comment ref="K35" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1656,7 +1656,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I37" shapeId="0">
+    <comment ref="I37" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1680,7 +1680,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G48" shapeId="0">
+    <comment ref="G48" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1704,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I48" shapeId="0">
+    <comment ref="I48" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1728,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="K48" shapeId="0">
+    <comment ref="K48" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G50" shapeId="0">
+    <comment ref="G50" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1776,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I50" shapeId="0">
+    <comment ref="I50" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I56" shapeId="0">
+    <comment ref="I56" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I64" shapeId="0">
+    <comment ref="I64" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I65" shapeId="0">
+    <comment ref="I65" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I70" shapeId="0">
+    <comment ref="I70" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1896,7 +1896,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I72" shapeId="0">
+    <comment ref="I72" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I74" shapeId="0">
+    <comment ref="I74" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I76" shapeId="0">
+    <comment ref="I76" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I81" shapeId="0">
+    <comment ref="I81" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1992,7 +1992,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G85" shapeId="0">
+    <comment ref="G85" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I85" shapeId="0">
+    <comment ref="I85" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2040,7 +2040,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G87" shapeId="0">
+    <comment ref="G87" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I87" shapeId="0">
+    <comment ref="I87" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2088,7 +2088,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I90" shapeId="0">
+    <comment ref="I90" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I99" shapeId="0">
+    <comment ref="I99" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2136,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I102" shapeId="0">
+    <comment ref="I102" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J102" shapeId="0">
+    <comment ref="J102" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2194,7 +2194,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2228,7 +2228,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G10" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2276,7 +2276,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I10" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2305,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="543">
   <si>
     <t>测试用例</t>
   </si>
@@ -4958,18 +4958,21 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试用例执行成功</t>
-  </si>
-  <si>
     <t>测试用例执行失败</t>
+  </si>
+  <si>
+    <t>浙AS1237</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test143</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5052,14 +5055,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5079,91 +5074,88 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5180,10 +5172,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5218,7 +5210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5253,7 +5245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5341,7 +5333,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5350,13 +5342,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5366,7 +5358,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5375,7 +5367,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5384,7 +5376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5394,12 +5386,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5430,7 +5422,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5449,7 +5441,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5461,8 +5453,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -5470,11 +5462,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.625" collapsed="true"/>
+    <col min="1" max="1" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5522,48 +5514,48 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B55" sqref="B55:B143"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="5.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="6.125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="18.625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="40.75" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="1" max="1" width="10.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.625" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="40.75" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="27" r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="27">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -7077,7 +7069,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="27">
       <c r="A40" s="14" t="s">
         <v>530</v>
       </c>
@@ -7157,7 +7149,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="27">
       <c r="A42" s="14" t="s">
         <v>530</v>
       </c>
@@ -7806,7 +7798,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="27">
       <c r="A59" s="14" t="s">
         <v>530</v>
       </c>
@@ -8282,7 +8274,7 @@
       <c r="E71" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="30" t="s">
         <v>529</v>
       </c>
       <c r="G71" s="15" t="s">
@@ -8916,7 +8908,9 @@
         <v>252</v>
       </c>
       <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
+      <c r="O87" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="14" t="s">
@@ -8952,7 +8946,9 @@
         <v>258</v>
       </c>
       <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
+      <c r="O88" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="14" t="s">
@@ -8981,7 +8977,7 @@
         <v>buttonClick</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>261</v>
+        <v>541</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -8990,7 +8986,9 @@
         <v>252</v>
       </c>
       <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
+      <c r="O89" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="14" t="s">
@@ -9026,7 +9024,9 @@
         <v>264</v>
       </c>
       <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
+      <c r="O90" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="14" t="s">
@@ -9062,7 +9062,9 @@
       <c r="L91" s="5"/>
       <c r="M91" s="17"/>
       <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
+      <c r="O91" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="14" t="s">
@@ -9098,7 +9100,9 @@
         <v>536</v>
       </c>
       <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
+      <c r="O92" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="14" t="s">
@@ -9134,7 +9138,9 @@
       <c r="L93" s="5"/>
       <c r="M93" s="17"/>
       <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
+      <c r="O93" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="14" t="s">
@@ -9170,7 +9176,9 @@
       <c r="L94" s="5"/>
       <c r="M94" s="17"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
+      <c r="O94" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="14" t="s">
@@ -9206,7 +9214,9 @@
         <v>273</v>
       </c>
       <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
+      <c r="O95" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="14" t="s">
@@ -9242,7 +9252,9 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
+      <c r="O96" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="14" t="s">
@@ -9278,7 +9290,9 @@
         <v>483</v>
       </c>
       <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
+      <c r="O97" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="14" t="s">
@@ -9316,7 +9330,9 @@
         <v>484</v>
       </c>
       <c r="N98" s="17"/>
-      <c r="O98" s="5"/>
+      <c r="O98" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="14" t="s">
@@ -9352,7 +9368,9 @@
       <c r="L99" s="5"/>
       <c r="M99" s="18"/>
       <c r="N99" s="17"/>
-      <c r="O99" s="5"/>
+      <c r="O99" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="14" t="s">
@@ -9388,7 +9406,9 @@
       <c r="L100" s="5"/>
       <c r="M100" s="18"/>
       <c r="N100" s="17"/>
-      <c r="O100" s="5"/>
+      <c r="O100" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="14" t="s">
@@ -9424,7 +9444,9 @@
         <v>486</v>
       </c>
       <c r="N101" s="17"/>
-      <c r="O101" s="5"/>
+      <c r="O101" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
@@ -9461,7 +9483,9 @@
         <v>487</v>
       </c>
       <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
+      <c r="O102" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="14" t="s">
@@ -9497,7 +9521,9 @@
         <v>290</v>
       </c>
       <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
+      <c r="O103" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="14" t="s">
@@ -9531,7 +9557,9 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
+      <c r="O104" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="14" t="s">
@@ -9567,7 +9595,9 @@
         <v>204</v>
       </c>
       <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
+      <c r="O105" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="14" t="s">
@@ -9603,7 +9633,9 @@
       <c r="L106" s="5"/>
       <c r="M106" s="18"/>
       <c r="N106" s="17"/>
-      <c r="O106" s="5"/>
+      <c r="O106" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="14" t="s">
@@ -9639,7 +9671,9 @@
       <c r="L107" s="5"/>
       <c r="M107" s="17"/>
       <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
+      <c r="O107" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="14" t="s">
@@ -9675,7 +9709,9 @@
         <v>299</v>
       </c>
       <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
+      <c r="O108" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="14" t="s">
@@ -9709,7 +9745,9 @@
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
+      <c r="O109" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="14" t="s">
@@ -9745,7 +9783,9 @@
         <v>204</v>
       </c>
       <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
+      <c r="O110" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="14" t="s">
@@ -9781,7 +9821,9 @@
       <c r="L111" s="5"/>
       <c r="M111" s="17"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
+      <c r="O111" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="14" t="s">
@@ -9817,7 +9859,9 @@
       <c r="L112" s="5"/>
       <c r="M112" s="17"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
+      <c r="O112" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="14" t="s">
@@ -9853,9 +9897,11 @@
         <v>509</v>
       </c>
       <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-    </row>
-    <row ht="27" r="114" spans="1:15">
+      <c r="O113" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="27">
       <c r="A114" s="14" t="s">
         <v>530</v>
       </c>
@@ -9895,7 +9941,9 @@
         <v>325</v>
       </c>
       <c r="N114" s="17"/>
-      <c r="O114" s="5"/>
+      <c r="O114" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="14" t="s">
@@ -9929,7 +9977,9 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
+      <c r="O115" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="14" t="s">
@@ -9965,7 +10015,9 @@
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
+      <c r="O116" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="14" t="s">
@@ -10001,9 +10053,11 @@
       <c r="L117" s="5"/>
       <c r="M117" s="18"/>
       <c r="N117" s="17"/>
-      <c r="O117" s="5"/>
-    </row>
-    <row ht="27" r="118" spans="1:15">
+      <c r="O117" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="27">
       <c r="A118" s="14" t="s">
         <v>530</v>
       </c>
@@ -10039,7 +10093,9 @@
         <v>331</v>
       </c>
       <c r="N118" s="17"/>
-      <c r="O118" s="5"/>
+      <c r="O118" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="14" t="s">
@@ -10073,7 +10129,9 @@
       <c r="L119" s="5"/>
       <c r="M119" s="18"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
+      <c r="O119" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="14" t="s">
@@ -10109,11 +10167,13 @@
         <v>176</v>
       </c>
       <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
+      <c r="O120" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="14" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>315</v>
@@ -10127,23 +10187,23 @@
       <c r="E121" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F121" s="18" t="s">
-        <v>335</v>
+      <c r="F121" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H121" s="16" t="str">
         <f>VLOOKUP(G121,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I121" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I121" s="22" t="s">
+        <v>499</v>
+      </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="18" t="s">
-        <v>336</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
@@ -10163,23 +10223,23 @@
       <c r="E122" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>35</v>
+      <c r="F122" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H122" s="16" t="str">
         <f>VLOOKUP(G122,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I122" s="22" t="s">
-        <v>532</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
+      <c r="M122" s="18" t="s">
+        <v>336</v>
+      </c>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
@@ -10197,29 +10257,29 @@
         <v>105</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F123" s="18" t="s">
-        <v>142</v>
+        <v>306</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H123" s="16" t="str">
         <f>VLOOKUP(G123,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I123" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I123" s="22" t="s">
+        <v>532</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="17"/>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row ht="27" r="124" spans="1:15">
+    <row r="124" spans="1:15">
       <c r="A124" s="14" t="s">
         <v>530</v>
       </c>
@@ -10236,32 +10296,26 @@
         <v>339</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
       <c r="H124" s="16" t="str">
         <f>VLOOKUP(G124,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
+        <v>intoIframe</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J124" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K124" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="N124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" ht="27">
       <c r="A125" s="14" t="s">
         <v>530</v>
       </c>
@@ -10278,21 +10332,29 @@
         <v>339</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="H125" s="16" t="str">
         <f>VLOOKUP(G125,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+        <v>itemIdMultipleExpressionClick</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J125" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K125" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
+      <c r="M125" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="N125" s="17"/>
       <c r="O125" s="5"/>
     </row>
     <row r="126" spans="1:15">
@@ -10312,18 +10374,16 @@
         <v>339</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H126" s="16" t="str">
         <f>VLOOKUP(G126,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I126" s="17" t="s">
-        <v>343</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -10347,22 +10407,23 @@
       <c r="E127" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F127" s="19" t="s">
-        <v>510</v>
+      <c r="F127" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I127" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="H127" s="16" t="str">
+        <f>VLOOKUP(G127,KeyWords!A:B,2,FALSE)</f>
+        <v>intoIframe</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>343</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="18" t="s">
-        <v>346</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
@@ -10382,19 +10443,16 @@
       <c r="E128" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F128" s="18" t="s">
-        <v>345</v>
+      <c r="F128" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H128" s="16" t="str">
-        <f>VLOOKUP(G128,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I128" s="23" t="s">
-        <v>92</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I128" s="17"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
@@ -10421,21 +10479,23 @@
         <v>339</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H129" s="16" t="str">
         <f>VLOOKUP(G129,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I129" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
@@ -10457,22 +10517,22 @@
         <v>339</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H130" s="16" t="str">
         <f>VLOOKUP(G130,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I130" s="20" t="s">
-        <v>515</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="18"/>
+      <c r="M130" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
     </row>
@@ -10493,24 +10553,22 @@
         <v>339</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>351</v>
+        <v>142</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="H131" s="16" t="str">
         <f>VLOOKUP(G131,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I131" s="23" t="s">
-        <v>514</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>515</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="18" t="s">
-        <v>352</v>
-      </c>
+      <c r="M131" s="18"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
     </row>
@@ -10530,22 +10588,24 @@
       <c r="E132" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F132" s="19" t="s">
-        <v>516</v>
+      <c r="F132" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H132" s="16" t="str">
         <f>VLOOKUP(G132,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I132" s="23"/>
+        <v>inputText</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>514</v>
+      </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="19" t="s">
-        <v>517</v>
+      <c r="M132" s="18" t="s">
+        <v>352</v>
       </c>
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
@@ -10566,23 +10626,23 @@
       <c r="E133" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>35</v>
+      <c r="F133" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H133" s="16" t="str">
         <f>VLOOKUP(G133,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I133" s="22" t="s">
-        <v>532</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I133" s="23"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
+      <c r="M133" s="19" t="s">
+        <v>517</v>
+      </c>
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
     </row>
@@ -10602,17 +10662,19 @@
       <c r="E134" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F134" s="18" t="s">
-        <v>152</v>
+      <c r="F134" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H134" s="16" t="str">
         <f>VLOOKUP(G134,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I134" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I134" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
@@ -10637,22 +10699,20 @@
         <v>339</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H135" s="16" t="str">
         <f>VLOOKUP(G135,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
     </row>
@@ -10673,7 +10733,7 @@
         <v>339</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>38</v>
@@ -10708,23 +10768,23 @@
       <c r="E137" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>35</v>
+      <c r="F137" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H137" s="16" t="str">
         <f>VLOOKUP(G137,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I137" s="22" t="s">
-        <v>532</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
+      <c r="M137" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
     </row>
@@ -10744,18 +10804,18 @@
       <c r="E138" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F138" s="18" t="s">
-        <v>142</v>
+      <c r="F138" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H138" s="16" t="str">
         <f>VLOOKUP(G138,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I138" s="17" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I138" s="22" t="s">
+        <v>532</v>
       </c>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -10781,22 +10841,22 @@
         <v>339</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H139" s="16" t="str">
         <f>VLOOKUP(G139,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I139" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="17" t="s">
-        <v>359</v>
-      </c>
+      <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
@@ -10817,23 +10877,21 @@
         <v>339</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="H140" s="16" t="str">
         <f>VLOOKUP(G140,KeyWords!A:B,2,FALSE)</f>
-        <v>assertString</v>
-      </c>
-      <c r="I140" s="17" t="s">
-        <v>362</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
@@ -10848,29 +10906,31 @@
       <c r="C141" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H141" s="16" t="str">
         <f>VLOOKUP(G141,KeyWords!A:B,2,FALSE)</f>
-        <v>closeBrowser</v>
+        <v>assertString</v>
       </c>
       <c r="I141" s="17" t="s">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="17"/>
+      <c r="M141" s="17" t="s">
+        <v>363</v>
+      </c>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
@@ -10882,33 +10942,33 @@
         <v>357</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>519</v>
+        <v>364</v>
       </c>
       <c r="H142" s="16" t="str">
         <f>VLOOKUP(G142,KeyWords!A:B,2,FALSE)</f>
-        <v>closeApp</v>
-      </c>
-      <c r="I142" s="24"/>
+        <v>closeBrowser</v>
+      </c>
+      <c r="I142" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="17"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O142" s="5"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="14" t="s">
@@ -10921,13 +10981,13 @@
         <v>29</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>519</v>
@@ -10941,37 +11001,73 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
+      <c r="N143" s="5"/>
       <c r="O143" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H144" s="16" t="str">
+        <f>VLOOKUP(G144,KeyWords!A:B,2,FALSE)</f>
+        <v>closeApp</v>
+      </c>
+      <c r="I144" s="24"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="5" t="s">
         <v>478</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G143" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G144">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C143" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D143" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D144">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I28"/>
-    <hyperlink r:id="rId2" ref="I31"/>
+    <hyperlink ref="I28" r:id="rId1"/>
+    <hyperlink ref="I31" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -10979,18 +11075,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.25" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" hidden="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="1" max="1" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14582,31 +14678,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C118" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C118">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D118" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D118">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G118" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G118">
       <formula1>"浏览器,打开,打开app,关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I20"/>
-    <hyperlink r:id="rId2" ref="I23"/>
-    <hyperlink r:id="rId3" ref="I3"/>
-    <hyperlink r:id="rId4" ref="I6"/>
+    <hyperlink ref="I20" r:id="rId1"/>
+    <hyperlink ref="I23" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -14614,8 +14710,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="1" max="1" width="25.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -14881,14 +14977,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -14915,7 +15011,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row ht="27" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="27">
       <c r="A2" s="14" t="s">
         <v>505</v>
       </c>
@@ -14953,7 +15049,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="27">
       <c r="A3" s="14" t="s">
         <v>505</v>
       </c>
@@ -15027,7 +15123,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="27">
       <c r="A5" s="14" t="s">
         <v>505</v>
       </c>
@@ -15065,7 +15161,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="27">
       <c r="A6" s="14" t="s">
         <v>505</v>
       </c>
@@ -15141,7 +15237,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="27">
       <c r="A8" s="14" t="s">
         <v>505</v>
       </c>
@@ -15219,7 +15315,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="27">
       <c r="A10" s="14" t="s">
         <v>505</v>
       </c>
@@ -15295,7 +15391,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="27">
       <c r="A12" s="14" t="s">
         <v>505</v>
       </c>
@@ -15336,18 +15432,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D1:D12" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D12">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C1:C12" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C12">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G1:G12" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G12">
       <formula1>"浏览器,打开,打开app,关闭,关闭窗口,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\UiAutomation\WuLiuUiAutomation\excel_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7950" windowWidth="20385" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" sheetId="1" r:id="rId1"/>
-    <sheet name="HuoZhuSteps" sheetId="4" r:id="rId2"/>
-    <sheet name="GouShuiNiStep" sheetId="2" r:id="rId3"/>
-    <sheet name="KeyWords" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Suite" r:id="rId1" sheetId="1"/>
+    <sheet name="HuoZhuSteps" r:id="rId2" sheetId="4"/>
+    <sheet name="GouShuiNiStep" r:id="rId3" sheetId="2"/>
+    <sheet name="KeyWords" r:id="rId4" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="M1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="N1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="O1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="D2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
+    <comment authorId="1" ref="D3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I27" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="2" shapeId="0">
+    <comment authorId="2" ref="J27" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G37" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G40" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K40" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K40" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J42" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I44" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G60" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I60" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I60" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I71" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I78" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I78" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I91" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I91" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I93" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I93" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G98" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G98" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I98" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I98" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G99" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I114" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K114" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K114" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G125" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G125" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I125" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I125" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K125" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K125" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I132" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I132" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1176,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="M1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="N1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="O1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G30" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G33" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1608,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K33" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K35" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1656,7 +1656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I37" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1680,7 +1680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1704,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1728,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G50" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I50" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I56" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I65" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I70" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1896,7 +1896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I72" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I74" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I74" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I76" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I76" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I81" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I81" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1992,7 +1992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G85" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G85" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I85" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2040,7 +2040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G87" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2088,7 +2088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I90" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I90" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2194,7 +2194,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2228,7 +2228,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment authorId="0" ref="I2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2276,7 +2276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="I10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2305,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="544">
   <si>
     <t>测试用例</t>
   </si>
@@ -4967,11 +4967,15 @@
   <si>
     <t>test143</t>
   </si>
+  <si>
+    <t>测试用例执行成功</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -5074,88 +5078,88 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5172,10 +5176,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5210,7 +5214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5245,7 +5249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5333,7 +5337,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5342,13 +5346,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5358,7 +5362,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5367,7 +5371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5376,7 +5380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5386,12 +5390,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5422,7 +5426,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5441,7 +5445,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5453,8 +5457,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -5462,11 +5466,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5514,48 +5518,48 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D3" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.625" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="40.75" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="5.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="18.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="40.75" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27">
+    <row ht="27" r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="27">
+    <row ht="27" r="40" spans="1:15">
       <c r="A40" s="14" t="s">
         <v>530</v>
       </c>
@@ -7149,7 +7153,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="27">
+    <row ht="27" r="42" spans="1:15">
       <c r="A42" s="14" t="s">
         <v>530</v>
       </c>
@@ -7798,7 +7802,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="27">
+    <row ht="27" r="59" spans="1:15">
       <c r="A59" s="14" t="s">
         <v>530</v>
       </c>
@@ -9901,7 +9905,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="27">
+    <row ht="27" r="114" spans="1:15">
       <c r="A114" s="14" t="s">
         <v>530</v>
       </c>
@@ -10057,7 +10061,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="27">
+    <row ht="27" r="118" spans="1:15">
       <c r="A118" s="14" t="s">
         <v>530</v>
       </c>
@@ -10205,7 +10209,9 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
+      <c r="O121" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="14" t="s">
@@ -10241,7 +10247,9 @@
         <v>336</v>
       </c>
       <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
+      <c r="O122" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="14" t="s">
@@ -10277,7 +10285,9 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
+      <c r="O123" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="14" t="s">
@@ -10313,9 +10323,11 @@
       <c r="L124" s="5"/>
       <c r="M124" s="17"/>
       <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-    </row>
-    <row r="125" spans="1:15" ht="27">
+      <c r="O124" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row ht="27" r="125" spans="1:15">
       <c r="A125" s="14" t="s">
         <v>530</v>
       </c>
@@ -10355,7 +10367,9 @@
         <v>341</v>
       </c>
       <c r="N125" s="17"/>
-      <c r="O125" s="5"/>
+      <c r="O125" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="14" t="s">
@@ -10389,7 +10403,9 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
+      <c r="O126" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="14" t="s">
@@ -10425,7 +10441,9 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
+      <c r="O127" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="14" t="s">
@@ -10460,7 +10478,9 @@
         <v>346</v>
       </c>
       <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
+      <c r="O128" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="14" t="s">
@@ -10498,7 +10518,9 @@
         <v>346</v>
       </c>
       <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
+      <c r="O129" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="14" t="s">
@@ -10534,7 +10556,9 @@
         <v>349</v>
       </c>
       <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
+      <c r="O130" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="14" t="s">
@@ -10570,7 +10594,9 @@
       <c r="L131" s="5"/>
       <c r="M131" s="18"/>
       <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
+      <c r="O131" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="14" t="s">
@@ -10608,7 +10634,9 @@
         <v>352</v>
       </c>
       <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
+      <c r="O132" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="14" t="s">
@@ -10644,7 +10672,9 @@
         <v>517</v>
       </c>
       <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
+      <c r="O133" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="14" t="s">
@@ -10680,7 +10710,9 @@
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
+      <c r="O134" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="14" t="s">
@@ -10714,7 +10746,9 @@
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
+      <c r="O135" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="14" t="s">
@@ -10750,7 +10784,9 @@
         <v>176</v>
       </c>
       <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
+      <c r="O136" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="14" t="s">
@@ -10786,7 +10822,9 @@
         <v>176</v>
       </c>
       <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
+      <c r="O137" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="14" t="s">
@@ -10822,7 +10860,9 @@
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
+      <c r="O138" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="14" t="s">
@@ -10858,7 +10898,9 @@
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="5"/>
+      <c r="O139" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="14" t="s">
@@ -10894,7 +10936,9 @@
         <v>359</v>
       </c>
       <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
+      <c r="O140" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="14" t="s">
@@ -10932,7 +10976,9 @@
         <v>363</v>
       </c>
       <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
+      <c r="O141" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="14" t="s">
@@ -10968,7 +11014,9 @@
       <c r="L142" s="5"/>
       <c r="M142" s="17"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
+      <c r="O142" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="14" t="s">
@@ -11045,29 +11093,29 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G144">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G144" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C144" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D144">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D144" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I28" r:id="rId1"/>
-    <hyperlink ref="I31" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="I28"/>
+    <hyperlink r:id="rId2" ref="I31"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -11075,18 +11123,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.25" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14678,31 +14726,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C118" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D118" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G118" type="list">
       <formula1>"浏览器,打开,打开app,关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I20" r:id="rId1"/>
-    <hyperlink ref="I23" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="I20"/>
+    <hyperlink r:id="rId2" ref="I23"/>
+    <hyperlink r:id="rId3" ref="I3"/>
+    <hyperlink r:id="rId4" ref="I6"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -14710,8 +14758,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -14977,14 +15025,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -15011,7 +15059,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="27">
+    <row ht="27" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>505</v>
       </c>
@@ -15049,7 +15097,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27">
+    <row ht="27" r="3" spans="1:15">
       <c r="A3" s="14" t="s">
         <v>505</v>
       </c>
@@ -15123,7 +15171,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="27">
+    <row ht="27" r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>505</v>
       </c>
@@ -15161,7 +15209,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="27">
+    <row ht="27" r="6" spans="1:15">
       <c r="A6" s="14" t="s">
         <v>505</v>
       </c>
@@ -15237,7 +15285,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="27">
+    <row ht="27" r="8" spans="1:15">
       <c r="A8" s="14" t="s">
         <v>505</v>
       </c>
@@ -15315,7 +15363,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27">
+    <row ht="27" r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>505</v>
       </c>
@@ -15391,7 +15439,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27">
+    <row ht="27" r="12" spans="1:15">
       <c r="A12" s="14" t="s">
         <v>505</v>
       </c>
@@ -15432,18 +15480,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D1:D12" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C1:C12" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G1:G12" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭窗口,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -2305,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="544">
   <si>
     <t>测试用例</t>
   </si>
@@ -5518,7 +5518,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\UiAutomation\WuLiuUiAutomation\excel_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7950" windowWidth="20385" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" r:id="rId1" sheetId="1"/>
-    <sheet name="HuoZhuSteps" r:id="rId2" sheetId="4"/>
-    <sheet name="GouShuiNiStep" r:id="rId3" sheetId="2"/>
-    <sheet name="KeyWords" r:id="rId4" sheetId="3"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="5"/>
+    <sheet name="Suite" sheetId="1" r:id="rId1"/>
+    <sheet name="HuoZhuSteps" sheetId="4" r:id="rId2"/>
+    <sheet name="GouShuiNiStep" sheetId="2" r:id="rId3"/>
+    <sheet name="KeyWords" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E1" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G1" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H1" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M1" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N1" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O1" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="D2" shapeId="0">
+    <comment ref="D2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I5" shapeId="0">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I6" shapeId="0">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I27" shapeId="0">
+    <comment ref="I27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="J27" shapeId="0">
+    <comment ref="J27" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G37" shapeId="0">
+    <comment ref="G37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G40" shapeId="0">
+    <comment ref="G40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K40" shapeId="0">
+    <comment ref="K40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J42" shapeId="0">
+    <comment ref="J42" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I44" shapeId="0">
+    <comment ref="I44" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G59" shapeId="0">
+    <comment ref="G59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I59" shapeId="0">
+    <comment ref="I59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K59" shapeId="0">
+    <comment ref="K59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G60" shapeId="0">
+    <comment ref="G60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I60" shapeId="0">
+    <comment ref="I60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G64" shapeId="0">
+    <comment ref="G64" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I64" shapeId="0">
+    <comment ref="I64" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I71" shapeId="0">
+    <comment ref="I71" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I78" shapeId="0">
+    <comment ref="I78" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I87" shapeId="0">
+    <comment ref="I87" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I91" shapeId="0">
+    <comment ref="I91" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I93" shapeId="0">
+    <comment ref="I93" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G98" shapeId="0">
+    <comment ref="G98" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I98" shapeId="0">
+    <comment ref="I98" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G99" shapeId="0">
+    <comment ref="G99" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I99" shapeId="0">
+    <comment ref="I99" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I102" shapeId="0">
+    <comment ref="I102" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G114" shapeId="0">
+    <comment ref="G114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I114" shapeId="0">
+    <comment ref="I114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K114" shapeId="0">
+    <comment ref="K114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="G125" shapeId="0">
+    <comment ref="G125" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I125" shapeId="0">
+    <comment ref="I125" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="K125" shapeId="0">
+    <comment ref="K125" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I132" shapeId="0">
+    <comment ref="I132" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1176,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E1" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1296,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G1" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H1" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M1" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N1" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O1" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I14" shapeId="0">
+    <comment ref="I14" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I19" shapeId="0">
+    <comment ref="I19" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J19" shapeId="0">
+    <comment ref="J19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G30" shapeId="0">
+    <comment ref="G30" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G33" shapeId="0">
+    <comment ref="G33" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1608,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="K33" shapeId="0">
+    <comment ref="K33" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="K35" shapeId="0">
+    <comment ref="K35" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1656,7 +1656,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I37" shapeId="0">
+    <comment ref="I37" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1680,7 +1680,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G48" shapeId="0">
+    <comment ref="G48" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1704,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I48" shapeId="0">
+    <comment ref="I48" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1728,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="K48" shapeId="0">
+    <comment ref="K48" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G50" shapeId="0">
+    <comment ref="G50" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1776,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I50" shapeId="0">
+    <comment ref="I50" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I56" shapeId="0">
+    <comment ref="I56" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I64" shapeId="0">
+    <comment ref="I64" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I65" shapeId="0">
+    <comment ref="I65" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I70" shapeId="0">
+    <comment ref="I70" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1896,7 +1896,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I72" shapeId="0">
+    <comment ref="I72" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I74" shapeId="0">
+    <comment ref="I74" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I76" shapeId="0">
+    <comment ref="I76" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I81" shapeId="0">
+    <comment ref="I81" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1992,7 +1992,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G85" shapeId="0">
+    <comment ref="G85" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I85" shapeId="0">
+    <comment ref="I85" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2040,7 +2040,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="G87" shapeId="0">
+    <comment ref="G87" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I87" shapeId="0">
+    <comment ref="I87" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2088,7 +2088,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I90" shapeId="0">
+    <comment ref="I90" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="2" ref="I99" shapeId="0">
+    <comment ref="I99" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2136,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="I102" shapeId="0">
+    <comment ref="I102" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="J102" shapeId="0">
+    <comment ref="J102" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2194,7 +2194,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2228,7 +2228,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="I2" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G10" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2276,7 +2276,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I10" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2305,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="545">
   <si>
     <t>测试用例</t>
   </si>
@@ -4958,9 +4958,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试用例执行失败</t>
-  </si>
-  <si>
     <t>浙AS1237</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4968,14 +4965,39 @@
     <t>test143</t>
   </si>
   <si>
-    <t>测试用例执行成功</t>
+    <t>测试用例执行失败</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -5078,88 +5100,88 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5176,10 +5198,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5214,7 +5236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5249,7 +5271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5337,7 +5359,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5346,13 +5368,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5362,7 +5384,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5371,7 +5393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5380,7 +5402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5390,12 +5412,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5426,7 +5448,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5445,7 +5467,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5457,8 +5479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -5466,11 +5488,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.625" collapsed="true"/>
+    <col min="1" max="1" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5518,48 +5540,48 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="5.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="6.125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="18.625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="40.75" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="1" max="1" width="10.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.625" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="40.75" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="27" r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="27">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -7073,7 +7095,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="27">
       <c r="A40" s="14" t="s">
         <v>530</v>
       </c>
@@ -7153,7 +7175,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="27">
       <c r="A42" s="14" t="s">
         <v>530</v>
       </c>
@@ -7802,7 +7824,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="27">
       <c r="A59" s="14" t="s">
         <v>530</v>
       </c>
@@ -8981,7 +9003,7 @@
         <v>buttonClick</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -9905,7 +9927,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="114" spans="1:15">
+    <row r="114" spans="1:15" ht="27">
       <c r="A114" s="14" t="s">
         <v>530</v>
       </c>
@@ -10061,7 +10083,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="118" spans="1:15">
+    <row r="118" spans="1:15" ht="27">
       <c r="A118" s="14" t="s">
         <v>530</v>
       </c>
@@ -10202,7 +10224,7 @@
         <v>sleep</v>
       </c>
       <c r="I121" s="22" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -10233,11 +10255,11 @@
         <v>335</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="H122" s="16" t="str">
         <f>VLOOKUP(G122,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>javaScriptClick</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -10278,7 +10300,7 @@
         <v>sleep</v>
       </c>
       <c r="I123" s="22" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -10327,7 +10349,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="125" spans="1:15">
+    <row r="125" spans="1:15" ht="27">
       <c r="A125" s="14" t="s">
         <v>530</v>
       </c>
@@ -10367,9 +10389,7 @@
         <v>341</v>
       </c>
       <c r="N125" s="17"/>
-      <c r="O125" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O125" s="5"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="14" t="s">
@@ -10403,9 +10423,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
-      <c r="O126" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O126" s="5"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="14" t="s">
@@ -10441,9 +10459,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
-      <c r="O127" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O127" s="5"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="14" t="s">
@@ -10478,9 +10494,7 @@
         <v>346</v>
       </c>
       <c r="N128" s="5"/>
-      <c r="O128" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O128" s="5"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="14" t="s">
@@ -10518,9 +10532,7 @@
         <v>346</v>
       </c>
       <c r="N129" s="5"/>
-      <c r="O129" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O129" s="5"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="14" t="s">
@@ -10556,9 +10568,7 @@
         <v>349</v>
       </c>
       <c r="N130" s="5"/>
-      <c r="O130" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O130" s="5"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="14" t="s">
@@ -10594,9 +10604,7 @@
       <c r="L131" s="5"/>
       <c r="M131" s="18"/>
       <c r="N131" s="5"/>
-      <c r="O131" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O131" s="5"/>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="14" t="s">
@@ -10634,9 +10642,7 @@
         <v>352</v>
       </c>
       <c r="N132" s="5"/>
-      <c r="O132" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O132" s="5"/>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="14" t="s">
@@ -10672,9 +10678,7 @@
         <v>517</v>
       </c>
       <c r="N133" s="5"/>
-      <c r="O133" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O133" s="5"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="14" t="s">
@@ -10710,9 +10714,7 @@
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O134" s="5"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="14" t="s">
@@ -10746,9 +10748,7 @@
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O135" s="5"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="14" t="s">
@@ -10784,9 +10784,7 @@
         <v>176</v>
       </c>
       <c r="N136" s="5"/>
-      <c r="O136" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O136" s="5"/>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="14" t="s">
@@ -10822,9 +10820,7 @@
         <v>176</v>
       </c>
       <c r="N137" s="5"/>
-      <c r="O137" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O137" s="5"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="14" t="s">
@@ -10860,9 +10856,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O138" s="5"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="14" t="s">
@@ -10898,9 +10892,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O139" s="5"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="14" t="s">
@@ -10936,9 +10928,7 @@
         <v>359</v>
       </c>
       <c r="N140" s="5"/>
-      <c r="O140" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O140" s="5"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="14" t="s">
@@ -10976,9 +10966,7 @@
         <v>363</v>
       </c>
       <c r="N141" s="5"/>
-      <c r="O141" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O141" s="5"/>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="14" t="s">
@@ -11014,9 +11002,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="17"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O142" s="5"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="14" t="s">
@@ -11050,16 +11036,14 @@
       <c r="L143" s="5"/>
       <c r="M143" s="17"/>
       <c r="N143" s="5"/>
-      <c r="O143" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O143" s="5"/>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="14" t="s">
         <v>530</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>29</v>
@@ -11086,36 +11070,34 @@
       <c r="L144" s="5"/>
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
-      <c r="O144" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="O144" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G144" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G144">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C144" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D144" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D144">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I28"/>
-    <hyperlink r:id="rId2" ref="I31"/>
+    <hyperlink ref="I28" r:id="rId1"/>
+    <hyperlink ref="I31" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -11123,18 +11105,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.25" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" hidden="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="1" max="1" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14726,31 +14708,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C118" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C118">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D118" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D118">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G118" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G118">
       <formula1>"浏览器,打开,打开app,关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I20"/>
-    <hyperlink r:id="rId2" ref="I23"/>
-    <hyperlink r:id="rId3" ref="I3"/>
-    <hyperlink r:id="rId4" ref="I6"/>
+    <hyperlink ref="I20" r:id="rId1"/>
+    <hyperlink ref="I23" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -14758,8 +14740,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="1" max="1" width="25.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -15025,14 +15007,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -15059,7 +15041,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row ht="27" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="27">
       <c r="A2" s="14" t="s">
         <v>505</v>
       </c>
@@ -15097,7 +15079,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="27">
       <c r="A3" s="14" t="s">
         <v>505</v>
       </c>
@@ -15171,7 +15153,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="27">
       <c r="A5" s="14" t="s">
         <v>505</v>
       </c>
@@ -15209,7 +15191,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="27">
       <c r="A6" s="14" t="s">
         <v>505</v>
       </c>
@@ -15285,7 +15267,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="27">
       <c r="A8" s="14" t="s">
         <v>505</v>
       </c>
@@ -15363,7 +15345,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="27">
       <c r="A10" s="14" t="s">
         <v>505</v>
       </c>
@@ -15439,7 +15421,7 @@
         <v>478</v>
       </c>
     </row>
-    <row ht="27" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="27">
       <c r="A12" s="14" t="s">
         <v>505</v>
       </c>
@@ -15480,18 +15462,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D1:D12" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D12">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C1:C12" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C12">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G1:G12" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G12">
       <formula1>"浏览器,打开,打开app,关闭,关闭窗口,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="1" shapeId="0">
+    <comment ref="I105" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="1" shapeId="0">
+    <comment ref="G117" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I114" authorId="1" shapeId="0">
+    <comment ref="I117" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K114" authorId="1" shapeId="0">
+    <comment ref="K117" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G125" authorId="1" shapeId="0">
+    <comment ref="G128" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I125" authorId="1" shapeId="0">
+    <comment ref="I128" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K125" authorId="1" shapeId="0">
+    <comment ref="K128" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I132" authorId="1" shapeId="0">
+    <comment ref="I135" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2305,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="548">
   <si>
     <t>测试用例</t>
   </si>
@@ -4858,10 +4858,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>login_002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4965,9 +4961,6 @@
     <t>test143</t>
   </si>
   <si>
-    <t>测试用例执行失败</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4991,6 +4984,22 @@
       </rPr>
       <t>3000</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test144</t>
+  </si>
+  <si>
+    <t>test145</t>
+  </si>
+  <si>
+    <t>test146</t>
+  </si>
+  <si>
+    <t>测试用例执行成功</t>
+  </si>
+  <si>
+    <t>login_002</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5540,7 +5549,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -5557,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="A68:XFD68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5630,7 +5639,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -5666,7 +5675,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>34</v>
@@ -5681,7 +5690,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>38</v>
@@ -5695,7 +5704,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
@@ -5704,7 +5713,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -5742,7 +5751,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>39</v>
@@ -5782,7 +5791,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>44</v>
@@ -5807,7 +5816,7 @@
         <v>sleep</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -5820,7 +5829,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -5858,7 +5867,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>49</v>
@@ -5883,7 +5892,7 @@
         <v>inputText</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -5898,7 +5907,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>54</v>
@@ -5938,7 +5947,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>58</v>
@@ -5976,7 +5985,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>59</v>
@@ -6001,7 +6010,7 @@
         <v>sleep</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -6014,7 +6023,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>61</v>
@@ -6054,7 +6063,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>62</v>
@@ -6092,7 +6101,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>65</v>
@@ -6132,7 +6141,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>68</v>
@@ -6170,7 +6179,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>70</v>
@@ -6210,7 +6219,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>73</v>
@@ -6250,7 +6259,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>76</v>
@@ -6288,7 +6297,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>77</v>
@@ -6326,7 +6335,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>81</v>
@@ -6366,7 +6375,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>85</v>
@@ -6406,7 +6415,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>87</v>
@@ -6431,7 +6440,7 @@
         <v>sleep</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -6444,7 +6453,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>90</v>
@@ -6482,7 +6491,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>94</v>
@@ -6522,7 +6531,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>96</v>
@@ -6560,7 +6569,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>99</v>
@@ -6585,7 +6594,7 @@
         <v>sleep</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -6598,7 +6607,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>102</v>
@@ -6637,7 +6646,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>103</v>
@@ -6675,7 +6684,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>110</v>
@@ -6713,7 +6722,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>114</v>
@@ -6751,7 +6760,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>115</v>
@@ -6791,7 +6800,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>119</v>
@@ -6829,7 +6838,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>121</v>
@@ -6869,7 +6878,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>124</v>
@@ -6907,7 +6916,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>126</v>
@@ -6945,7 +6954,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>127</v>
@@ -6983,7 +6992,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>130</v>
@@ -7021,7 +7030,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>132</v>
@@ -7059,7 +7068,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>135</v>
@@ -7097,7 +7106,7 @@
     </row>
     <row r="40" spans="1:15" ht="27">
       <c r="A40" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>139</v>
@@ -7141,7 +7150,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>140</v>
@@ -7177,7 +7186,7 @@
     </row>
     <row r="42" spans="1:15" ht="27">
       <c r="A42" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>144</v>
@@ -7216,7 +7225,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>151</v>
@@ -7254,7 +7263,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>153</v>
@@ -7294,7 +7303,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>156</v>
@@ -7334,7 +7343,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>159</v>
@@ -7372,7 +7381,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>162</v>
@@ -7412,7 +7421,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>165</v>
@@ -7448,7 +7457,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>168</v>
@@ -7486,7 +7495,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>170</v>
@@ -7524,7 +7533,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>171</v>
@@ -7560,7 +7569,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>174</v>
@@ -7598,7 +7607,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>177</v>
@@ -7636,7 +7645,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>178</v>
@@ -7674,7 +7683,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>179</v>
@@ -7712,7 +7721,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>182</v>
@@ -7750,7 +7759,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>184</v>
@@ -7788,7 +7797,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>186</v>
@@ -7826,7 +7835,7 @@
     </row>
     <row r="59" spans="1:15" ht="27">
       <c r="A59" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>187</v>
@@ -7870,7 +7879,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>189</v>
@@ -7908,7 +7917,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>192</v>
@@ -7946,7 +7955,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>193</v>
@@ -7984,7 +7993,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>195</v>
@@ -8022,7 +8031,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>196</v>
@@ -8060,7 +8069,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>198</v>
@@ -8098,7 +8107,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>199</v>
@@ -8136,7 +8145,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>202</v>
@@ -8174,7 +8183,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>205</v>
@@ -8212,7 +8221,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>207</v>
@@ -8250,7 +8259,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>210</v>
@@ -8286,7 +8295,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>213</v>
@@ -8324,7 +8333,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>214</v>
@@ -8360,7 +8369,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>217</v>
@@ -8398,7 +8407,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>218</v>
@@ -8436,7 +8445,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>220</v>
@@ -8476,7 +8485,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>221</v>
@@ -8514,7 +8523,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>222</v>
@@ -8552,7 +8561,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>224</v>
@@ -8590,7 +8599,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>225</v>
@@ -8630,7 +8639,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>228</v>
@@ -8670,7 +8679,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>232</v>
@@ -8708,7 +8717,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>235</v>
@@ -8746,7 +8755,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>236</v>
@@ -8784,7 +8793,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>239</v>
@@ -8822,7 +8831,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>241</v>
@@ -8860,7 +8869,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>244</v>
@@ -8900,7 +8909,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>245</v>
@@ -8940,7 +8949,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>248</v>
@@ -8978,7 +8987,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>249</v>
@@ -9003,7 +9012,7 @@
         <v>buttonClick</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -9018,7 +9027,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>253</v>
@@ -9056,7 +9065,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>256</v>
@@ -9094,7 +9103,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>259</v>
@@ -9123,7 +9132,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5" t="s">
@@ -9132,7 +9141,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>262</v>
@@ -9170,7 +9179,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>265</v>
@@ -9208,7 +9217,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>268</v>
@@ -9246,7 +9255,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>269</v>
@@ -9271,7 +9280,7 @@
         <v>sleep</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -9284,7 +9293,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>271</v>
@@ -9322,7 +9331,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>274</v>
@@ -9362,7 +9371,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>276</v>
@@ -9400,7 +9409,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>280</v>
@@ -9414,31 +9423,31 @@
       <c r="E100" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F100" s="18" t="s">
-        <v>142</v>
+      <c r="F100" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H100" s="16" t="str">
         <f>VLOOKUP(G100,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I100" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
+        <v>sleep</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
       <c r="O100" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>281</v>
@@ -9452,23 +9461,23 @@
       <c r="E101" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F101" s="19" t="s">
-        <v>485</v>
+      <c r="F101" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H101" s="16" t="str">
         <f>VLOOKUP(G101,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I101" s="23"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="19" t="s">
-        <v>486</v>
-      </c>
+      <c r="M101" s="18"/>
       <c r="N101" s="17"/>
       <c r="O101" s="5" t="s">
         <v>478</v>
@@ -9476,7 +9485,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>282</v>
@@ -9490,32 +9499,31 @@
       <c r="E102" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F102" s="18" t="s">
-        <v>285</v>
+      <c r="F102" s="19" t="s">
+        <v>485</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="H102" t="s">
-        <v>430</v>
-      </c>
-      <c r="I102" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="H102" s="16" t="str">
+        <f>VLOOKUP(G102,KeyWords!A:B,2,FALSE)</f>
+        <v>buttonClick</v>
+      </c>
+      <c r="I102" s="23"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="N102" s="5"/>
+      <c r="M102" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="N102" s="17"/>
       <c r="O102" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>283</v>
@@ -9530,30 +9538,28 @@
         <v>270</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H103" s="16" t="str">
         <f>VLOOKUP(G103,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+        <v>outIframe</v>
+      </c>
+      <c r="I103" s="23"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="N103" s="5"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="17"/>
       <c r="O103" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>284</v>
@@ -9568,28 +9574,30 @@
         <v>270</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H104" s="16" t="str">
         <f>VLOOKUP(G104,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="17"/>
       <c r="O104" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>288</v>
@@ -9604,21 +9612,22 @@
         <v>270</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H105" s="16" t="str">
-        <f>VLOOKUP(G105,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I105" s="5"/>
+        <v>286</v>
+      </c>
+      <c r="H105" t="s">
+        <v>430</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="17" t="s">
-        <v>204</v>
+        <v>487</v>
       </c>
       <c r="N105" s="5"/>
       <c r="O105" s="5" t="s">
@@ -9627,7 +9636,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>291</v>
@@ -9641,31 +9650,31 @@
       <c r="E106" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>35</v>
+      <c r="F106" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H106" s="16" t="str">
         <f>VLOOKUP(G106,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>535</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="17"/>
+      <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="17"/>
+      <c r="M106" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N106" s="5"/>
       <c r="O106" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>292</v>
@@ -9680,22 +9689,20 @@
         <v>270</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H107" s="16" t="str">
         <f>VLOOKUP(G107,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="17"/>
+      <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5" t="s">
         <v>478</v>
@@ -9703,7 +9710,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>294</v>
@@ -9715,10 +9722,10 @@
         <v>105</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>38</v>
@@ -9732,7 +9739,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="17" t="s">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="N108" s="5"/>
       <c r="O108" s="5" t="s">
@@ -9741,7 +9748,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>295</v>
@@ -9753,31 +9760,33 @@
         <v>105</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>152</v>
+        <v>270</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H109" s="16" t="str">
         <f>VLOOKUP(G109,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I109" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I109" s="22" t="s">
+        <v>534</v>
+      </c>
       <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="K109" s="17"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="17"/>
       <c r="O109" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>296</v>
@@ -9789,25 +9798,25 @@
         <v>105</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H110" s="16" t="str">
         <f>VLOOKUP(G110,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I110" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="M110" s="17"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5" t="s">
         <v>478</v>
@@ -9815,7 +9824,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>300</v>
@@ -9829,23 +9838,23 @@
       <c r="E111" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>35</v>
+      <c r="F111" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H111" s="16" t="str">
         <f>VLOOKUP(G111,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>506</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="17"/>
+      <c r="M111" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="N111" s="5"/>
       <c r="O111" s="5" t="s">
         <v>478</v>
@@ -9853,7 +9862,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>301</v>
@@ -9865,25 +9874,23 @@
         <v>105</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H112" s="16" t="str">
         <f>VLOOKUP(G112,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I112" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="17"/>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5" t="s">
         <v>478</v>
@@ -9891,7 +9898,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>302</v>
@@ -9903,10 +9910,10 @@
         <v>105</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="G113" s="15" t="s">
         <v>38</v>
@@ -9919,17 +9926,17 @@
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="20" t="s">
-        <v>509</v>
+      <c r="M113" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="27">
+    <row r="114" spans="1:15">
       <c r="A114" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>303</v>
@@ -9941,39 +9948,33 @@
         <v>105</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>319</v>
+        <v>297</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="H114" s="16" t="str">
         <f>VLOOKUP(G114,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
-      </c>
-      <c r="I114" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J114" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K114" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>sleep</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="N114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="5"/>
       <c r="O114" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>304</v>
@@ -9988,20 +9989,22 @@
         <v>306</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H115" s="16" t="str">
         <f>VLOOKUP(G115,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I115" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
+      <c r="M115" s="17"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5" t="s">
         <v>478</v>
@@ -10009,7 +10012,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>305</v>
@@ -10023,31 +10026,31 @@
       <c r="E116" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>35</v>
+      <c r="F116" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H116" s="16" t="str">
         <f>VLOOKUP(G116,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>512</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
+      <c r="M116" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="N116" s="5"/>
       <c r="O116" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" ht="27">
       <c r="A117" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>307</v>
@@ -10062,30 +10065,36 @@
         <v>306</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="H117" s="16" t="str">
         <f>VLOOKUP(G117,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
+        <v>itemIdMultipleExpressionClick</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="J117" s="17"/>
-      <c r="K117" s="18"/>
+        <v>323</v>
+      </c>
+      <c r="J117" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K117" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L117" s="5"/>
-      <c r="M117" s="18"/>
+      <c r="M117" s="18" t="s">
+        <v>325</v>
+      </c>
       <c r="N117" s="17"/>
       <c r="O117" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="27">
+    <row r="118" spans="1:15">
       <c r="A118" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>310</v>
@@ -10100,32 +10109,28 @@
         <v>306</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>328</v>
+        <v>152</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>466</v>
+        <v>152</v>
       </c>
       <c r="H118" s="16" t="str">
         <f>VLOOKUP(G118,KeyWords!A:B,2,FALSE)</f>
-        <v>getSelectDataByText</v>
-      </c>
-      <c r="I118" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="J118" s="17"/>
-      <c r="K118" s="18"/>
+        <v>outIframe</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="N118" s="17"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
       <c r="O118" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>311</v>
@@ -10139,21 +10144,23 @@
       <c r="E119" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F119" s="18" t="s">
-        <v>152</v>
+      <c r="F119" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H119" s="16" t="str">
         <f>VLOOKUP(G119,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I119" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="18"/>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5" t="s">
         <v>478</v>
@@ -10161,7 +10168,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>513</v>
@@ -10176,30 +10183,30 @@
         <v>306</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H120" s="16" t="str">
         <f>VLOOKUP(G120,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="J120" s="17"/>
+      <c r="K120" s="18"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N120" s="5"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="17"/>
       <c r="O120" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" ht="27">
       <c r="A121" s="14" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>315</v>
@@ -10213,31 +10220,33 @@
       <c r="E121" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>35</v>
+      <c r="F121" s="18" t="s">
+        <v>328</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>35</v>
+        <v>466</v>
       </c>
       <c r="H121" s="16" t="str">
         <f>VLOOKUP(G121,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I121" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+        <v>getSelectDataByText</v>
+      </c>
+      <c r="I121" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="J121" s="17"/>
+      <c r="K121" s="18"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+      <c r="M121" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="N121" s="17"/>
       <c r="O121" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>316</v>
@@ -10252,22 +10261,20 @@
         <v>306</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>335</v>
+        <v>152</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="H122" s="16" t="str">
         <f>VLOOKUP(G122,KeyWords!A:B,2,FALSE)</f>
-        <v>javaScriptClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="18" t="s">
-        <v>336</v>
-      </c>
+      <c r="M122" s="18"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5" t="s">
         <v>478</v>
@@ -10275,7 +10282,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>317</v>
@@ -10289,23 +10296,23 @@
       <c r="E123" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>35</v>
+      <c r="F123" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H123" s="16" t="str">
         <f>VLOOKUP(G123,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I123" s="22" t="s">
-        <v>543</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
+      <c r="M123" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N123" s="5"/>
       <c r="O123" s="5" t="s">
         <v>478</v>
@@ -10313,7 +10320,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>318</v>
@@ -10325,33 +10332,33 @@
         <v>105</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F124" s="18" t="s">
-        <v>142</v>
+        <v>306</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H124" s="16" t="str">
         <f>VLOOKUP(G124,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I124" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I124" s="22" t="s">
+        <v>542</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="17"/>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="27">
+    <row r="125" spans="1:15">
       <c r="A125" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>320</v>
@@ -10363,37 +10370,33 @@
         <v>105</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="H125" s="16" t="str">
         <f>VLOOKUP(G125,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
-      </c>
-      <c r="I125" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J125" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K125" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>javaScriptClick</v>
+      </c>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="N125" s="17"/>
-      <c r="O125" s="5"/>
+        <v>336</v>
+      </c>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>321</v>
@@ -10405,29 +10408,33 @@
         <v>105</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F126" s="18" t="s">
-        <v>152</v>
+        <v>306</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H126" s="16" t="str">
         <f>VLOOKUP(G126,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I126" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I126" s="22" t="s">
+        <v>541</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
+      <c r="O126" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>326</v>
@@ -10451,19 +10458,21 @@
         <f>VLOOKUP(G127,KeyWords!A:B,2,FALSE)</f>
         <v>intoIframe</v>
       </c>
-      <c r="I127" s="17" t="s">
-        <v>343</v>
+      <c r="I127" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
+      <c r="M127" s="17"/>
       <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="O127" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="27">
       <c r="A128" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>327</v>
@@ -10477,28 +10486,37 @@
       <c r="E128" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F128" s="19" t="s">
-        <v>510</v>
+      <c r="F128" s="18" t="s">
+        <v>340</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
+        <v>322</v>
+      </c>
+      <c r="H128" s="16" t="str">
+        <f>VLOOKUP(G128,KeyWords!A:B,2,FALSE)</f>
+        <v>itemIdMultipleExpressionClick</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J128" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K128" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L128" s="5"/>
       <c r="M128" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
+        <v>341</v>
+      </c>
+      <c r="N128" s="17"/>
+      <c r="O128" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>332</v>
@@ -10513,30 +10531,28 @@
         <v>339</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>345</v>
+        <v>152</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="H129" s="16" t="str">
         <f>VLOOKUP(G129,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I129" s="23" t="s">
-        <v>92</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="18" t="s">
-        <v>346</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
+      <c r="O129" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>333</v>
@@ -10551,28 +10567,30 @@
         <v>339</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H130" s="16" t="str">
         <f>VLOOKUP(G130,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I130" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>343</v>
+      </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="18" t="s">
-        <v>349</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
+      <c r="O130" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>334</v>
@@ -10586,29 +10604,30 @@
       <c r="E131" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F131" s="18" t="s">
-        <v>142</v>
+      <c r="F131" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H131" s="16" t="str">
-        <f>VLOOKUP(G131,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I131" s="20" t="s">
-        <v>515</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I131" s="17"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="18"/>
+      <c r="M131" s="18" t="s">
+        <v>346</v>
+      </c>
       <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
+      <c r="O131" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>337</v>
@@ -10623,7 +10642,7 @@
         <v>339</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G132" s="15" t="s">
         <v>51</v>
@@ -10633,20 +10652,22 @@
         <v>inputText</v>
       </c>
       <c r="I132" s="23" t="s">
-        <v>514</v>
+        <v>92</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="18" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
+      <c r="O132" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>338</v>
@@ -10660,8 +10681,8 @@
       <c r="E133" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F133" s="19" t="s">
-        <v>516</v>
+      <c r="F133" s="18" t="s">
+        <v>348</v>
       </c>
       <c r="G133" s="15" t="s">
         <v>38</v>
@@ -10670,19 +10691,21 @@
         <f>VLOOKUP(G133,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I133" s="23"/>
+      <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="19" t="s">
-        <v>517</v>
+      <c r="M133" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
+      <c r="O133" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>342</v>
@@ -10696,29 +10719,31 @@
       <c r="E134" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>35</v>
+      <c r="F134" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H134" s="16" t="str">
         <f>VLOOKUP(G134,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I134" s="22" t="s">
-        <v>532</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>515</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
+      <c r="M134" s="18"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
+      <c r="O134" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>344</v>
@@ -10733,26 +10758,32 @@
         <v>339</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="H135" s="16" t="str">
         <f>VLOOKUP(G135,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I135" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I135" s="23" t="s">
+        <v>514</v>
+      </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
+      <c r="M135" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
+      <c r="O135" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>347</v>
@@ -10766,8 +10797,8 @@
       <c r="E136" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F136" s="18" t="s">
-        <v>175</v>
+      <c r="F136" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>38</v>
@@ -10776,19 +10807,21 @@
         <f>VLOOKUP(G136,KeyWords!A:B,2,FALSE)</f>
         <v>buttonClick</v>
       </c>
-      <c r="I136" s="5"/>
+      <c r="I136" s="23"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="18" t="s">
-        <v>176</v>
+      <c r="M136" s="19" t="s">
+        <v>517</v>
       </c>
       <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
+      <c r="O136" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>350</v>
@@ -10802,29 +10835,31 @@
       <c r="E137" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F137" s="18" t="s">
-        <v>335</v>
+      <c r="F137" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H137" s="16" t="str">
         <f>VLOOKUP(G137,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I137" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I137" s="22" t="s">
+        <v>531</v>
+      </c>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="M137" s="5"/>
       <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
+      <c r="O137" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>353</v>
@@ -10838,29 +10873,29 @@
       <c r="E138" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>35</v>
+      <c r="F138" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="H138" s="16" t="str">
         <f>VLOOKUP(G138,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I138" s="22" t="s">
-        <v>532</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
+      <c r="O138" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>354</v>
@@ -10875,28 +10910,30 @@
         <v>339</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H139" s="16" t="str">
         <f>VLOOKUP(G139,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I139" s="17" t="s">
-        <v>143</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
+      <c r="M139" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N139" s="5"/>
-      <c r="O139" s="5"/>
+      <c r="O139" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>355</v>
@@ -10911,7 +10948,7 @@
         <v>339</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G140" s="15" t="s">
         <v>38</v>
@@ -10924,15 +10961,17 @@
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="17" t="s">
-        <v>359</v>
+      <c r="M140" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
+      <c r="O140" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>356</v>
@@ -10946,31 +10985,31 @@
       <c r="E141" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F141" s="18" t="s">
-        <v>360</v>
+      <c r="F141" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>361</v>
+        <v>35</v>
       </c>
       <c r="H141" s="16" t="str">
         <f>VLOOKUP(G141,KeyWords!A:B,2,FALSE)</f>
-        <v>assertString</v>
-      </c>
-      <c r="I141" s="17" t="s">
-        <v>362</v>
+        <v>sleep</v>
+      </c>
+      <c r="I141" s="22" t="s">
+        <v>531</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="17" t="s">
-        <v>363</v>
-      </c>
+      <c r="M141" s="5"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
+      <c r="O141" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>357</v>
@@ -10978,110 +11017,232 @@
       <c r="C142" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>367</v>
+        <v>142</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>364</v>
+        <v>142</v>
       </c>
       <c r="H142" s="16" t="str">
         <f>VLOOKUP(G142,KeyWords!A:B,2,FALSE)</f>
-        <v>closeBrowser</v>
+        <v>intoIframe</v>
       </c>
       <c r="I142" s="17" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="17"/>
+      <c r="M142" s="5"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
+      <c r="O142" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>30</v>
+        <v>104</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>519</v>
+        <v>38</v>
       </c>
       <c r="H143" s="16" t="str">
         <f>VLOOKUP(G143,KeyWords!A:B,2,FALSE)</f>
-        <v>closeApp</v>
-      </c>
-      <c r="I143" s="24"/>
+        <v>buttonClick</v>
+      </c>
+      <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="17"/>
+      <c r="M143" s="17" t="s">
+        <v>359</v>
+      </c>
       <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
+      <c r="O143" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="14" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>519</v>
+        <v>361</v>
       </c>
       <c r="H144" s="16" t="str">
         <f>VLOOKUP(G144,KeyWords!A:B,2,FALSE)</f>
-        <v>closeApp</v>
-      </c>
-      <c r="I144" s="24"/>
+        <v>assertString</v>
+      </c>
+      <c r="I144" s="17" t="s">
+        <v>362</v>
+      </c>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="5"/>
+      <c r="M144" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H145" s="16" t="str">
+        <f>VLOOKUP(G145,KeyWords!A:B,2,FALSE)</f>
+        <v>closeBrowser</v>
+      </c>
+      <c r="I145" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H146" s="16" t="str">
+        <f>VLOOKUP(G146,KeyWords!A:B,2,FALSE)</f>
+        <v>closeApp</v>
+      </c>
+      <c r="I146" s="24"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H147" s="16" t="str">
+        <f>VLOOKUP(G147,KeyWords!A:B,2,FALSE)</f>
+        <v>closeApp</v>
+      </c>
+      <c r="I147" s="24"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G147">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C147">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D147">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel_testcase/testdata.xlsx
+++ b/excel_testcase/testdata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\UiAutomation\WuLiuUiAutomation\excel_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7950" windowWidth="20385" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" sheetId="1" r:id="rId1"/>
-    <sheet name="HuoZhuSteps" sheetId="4" r:id="rId2"/>
-    <sheet name="GouShuiNiStep" sheetId="2" r:id="rId3"/>
-    <sheet name="KeyWords" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Suite" r:id="rId1" sheetId="1"/>
+    <sheet name="HuoZhuSteps" r:id="rId2" sheetId="4"/>
+    <sheet name="GouShuiNiStep" r:id="rId3" sheetId="2"/>
+    <sheet name="KeyWords" r:id="rId4" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="M1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="N1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="O1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="D2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
+    <comment authorId="1" ref="D3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I27" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="2" shapeId="0">
+    <comment authorId="2" ref="J27" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G37" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G40" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K40" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K40" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J42" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I44" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K59" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K59" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G60" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I60" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I60" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I71" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I78" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I78" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I91" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I91" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I93" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I93" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G98" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G98" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I98" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I98" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G99" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I105" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I105" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G117" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G118" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I117" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I118" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K117" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K118" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G128" authorId="1" shapeId="0">
+    <comment authorId="1" ref="G129" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I128" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I129" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K128" authorId="1" shapeId="0">
+    <comment authorId="1" ref="K129" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I135" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I136" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1176,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="M1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="N1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="O1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G30" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G33" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1608,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K33" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K35" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1656,7 +1656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I37" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1680,7 +1680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1704,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1728,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K48" authorId="2" shapeId="0">
+    <comment authorId="2" ref="K48" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G50" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I50" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I56" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I64" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I65" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I70" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1896,7 +1896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I72" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I74" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I74" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I76" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I76" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I81" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I81" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1992,7 +1992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G85" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G85" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I85" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2040,7 +2040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G87" authorId="2" shapeId="0">
+    <comment authorId="2" ref="G87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I87" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2088,7 +2088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I90" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I90" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="2" shapeId="0">
+    <comment authorId="2" ref="I99" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="I102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J102" authorId="1" shapeId="0">
+    <comment authorId="1" ref="J102" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2194,7 +2194,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2228,7 +2228,7 @@
     <author>joy</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment authorId="0" ref="I2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2276,7 +2276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="I10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2305,7 +2305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="552">
   <si>
     <t>测试用例</t>
   </si>
@@ -4996,17 +4996,32 @@
     <t>test146</t>
   </si>
   <si>
-    <t>测试用例执行成功</t>
+    <t>测试用例执行失败</t>
   </si>
   <si>
     <t>login_002</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>test147</t>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\selenium\\selenium_chrome\\chromedriver.exe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例执行成功</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -5109,88 +5124,88 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5207,10 +5222,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5245,7 +5260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5280,7 +5295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5368,7 +5383,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5377,13 +5392,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5393,7 +5408,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5402,7 +5417,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5411,7 +5426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5421,12 +5436,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5457,7 +5472,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5476,7 +5491,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5488,8 +5503,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -5497,11 +5512,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5549,48 +5564,48 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D3" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A147"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.625" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="40.75" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="5.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="18.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="40.75" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27">
+    <row ht="27" r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -6632,10 +6647,10 @@
         <v>openBrowser</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>109</v>
+        <v>549</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>550</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="5"/>
@@ -7104,7 +7119,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="27">
+    <row ht="27" r="40" spans="1:15">
       <c r="A40" s="14" t="s">
         <v>547</v>
       </c>
@@ -7184,7 +7199,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="27">
+    <row ht="27" r="42" spans="1:15">
       <c r="A42" s="14" t="s">
         <v>547</v>
       </c>
@@ -7833,7 +7848,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="27">
+    <row ht="27" r="59" spans="1:15">
       <c r="A59" s="14" t="s">
         <v>547</v>
       </c>
@@ -10048,9 +10063,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="27">
+    <row r="117" spans="1:15">
       <c r="A117" s="14" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>307</v>
@@ -10064,35 +10079,29 @@
       <c r="E117" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F117" s="18" t="s">
-        <v>319</v>
+      <c r="F117" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="H117" s="16" t="str">
         <f>VLOOKUP(G117,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
-      </c>
-      <c r="I117" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J117" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K117" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>sleep</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="N117" s="17"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
       <c r="O117" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row ht="27" r="118" spans="1:15">
       <c r="A118" s="14" t="s">
         <v>547</v>
       </c>
@@ -10109,21 +10118,29 @@
         <v>306</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="H118" s="16" t="str">
         <f>VLOOKUP(G118,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
+        <v>itemIdMultipleExpressionClick</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J118" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K118" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="M118" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="N118" s="17"/>
       <c r="O118" s="5" t="s">
         <v>478</v>
       </c>
@@ -10144,19 +10161,17 @@
       <c r="E119" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>35</v>
+      <c r="F119" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="H119" s="16" t="str">
         <f>VLOOKUP(G119,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I119" s="22" t="s">
-        <v>512</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -10182,29 +10197,29 @@
       <c r="E120" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F120" s="18" t="s">
-        <v>142</v>
+      <c r="F120" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H120" s="16" t="str">
         <f>VLOOKUP(G120,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I120" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="J120" s="17"/>
-      <c r="K120" s="18"/>
+        <v>sleep</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="17"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
       <c r="O120" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="27">
+    <row r="121" spans="1:15">
       <c r="A121" s="14" t="s">
         <v>547</v>
       </c>
@@ -10221,30 +10236,28 @@
         <v>306</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>466</v>
+        <v>142</v>
       </c>
       <c r="H121" s="16" t="str">
         <f>VLOOKUP(G121,KeyWords!A:B,2,FALSE)</f>
-        <v>getSelectDataByText</v>
-      </c>
-      <c r="I121" s="32" t="s">
-        <v>330</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I121" s="23" t="s">
+        <v>511</v>
       </c>
       <c r="J121" s="17"/>
       <c r="K121" s="18"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="18" t="s">
-        <v>331</v>
-      </c>
+      <c r="M121" s="18"/>
       <c r="N121" s="17"/>
       <c r="O121" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row ht="27" r="122" spans="1:15">
       <c r="A122" s="14" t="s">
         <v>547</v>
       </c>
@@ -10261,21 +10274,25 @@
         <v>306</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>152</v>
+        <v>466</v>
       </c>
       <c r="H122" s="16" t="str">
         <f>VLOOKUP(G122,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+        <v>getSelectDataByText</v>
+      </c>
+      <c r="I122" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="J122" s="17"/>
+      <c r="K122" s="18"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="5"/>
+      <c r="M122" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="N122" s="17"/>
       <c r="O122" s="5" t="s">
         <v>478</v>
       </c>
@@ -10297,22 +10314,20 @@
         <v>306</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H123" s="16" t="str">
         <f>VLOOKUP(G123,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="M123" s="18"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5" t="s">
         <v>478</v>
@@ -10334,23 +10349,23 @@
       <c r="E124" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>35</v>
+      <c r="F124" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H124" s="16" t="str">
         <f>VLOOKUP(G124,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I124" s="22" t="s">
-        <v>542</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
+      <c r="M124" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N124" s="5"/>
       <c r="O124" s="5" t="s">
         <v>478</v>
@@ -10372,23 +10387,23 @@
       <c r="E125" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F125" s="18" t="s">
-        <v>335</v>
+      <c r="F125" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="H125" s="16" t="str">
         <f>VLOOKUP(G125,KeyWords!A:B,2,FALSE)</f>
-        <v>javaScriptClick</v>
-      </c>
-      <c r="I125" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I125" s="22" t="s">
+        <v>542</v>
+      </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="18" t="s">
-        <v>336</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5" t="s">
         <v>478</v>
@@ -10410,23 +10425,23 @@
       <c r="E126" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>35</v>
+      <c r="F126" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="H126" s="16" t="str">
         <f>VLOOKUP(G126,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I126" s="22" t="s">
-        <v>541</v>
-      </c>
+        <v>javaScriptClick</v>
+      </c>
+      <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
+      <c r="M126" s="18" t="s">
+        <v>336</v>
+      </c>
       <c r="N126" s="5"/>
       <c r="O126" s="5" t="s">
         <v>478</v>
@@ -10446,31 +10461,31 @@
         <v>105</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>142</v>
+        <v>306</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H127" s="16" t="str">
         <f>VLOOKUP(G127,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I127" s="23" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I127" s="22" t="s">
+        <v>541</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="17"/>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="27">
+    <row r="128" spans="1:15">
       <c r="A128" s="14" t="s">
         <v>547</v>
       </c>
@@ -10487,34 +10502,28 @@
         <v>339</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
       <c r="H128" s="16" t="str">
         <f>VLOOKUP(G128,KeyWords!A:B,2,FALSE)</f>
-        <v>itemIdMultipleExpressionClick</v>
+        <v>intoIframe</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J128" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K128" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="N128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="5"/>
       <c r="O128" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row ht="27" r="129" spans="1:15">
       <c r="A129" s="14" t="s">
         <v>547</v>
       </c>
@@ -10531,21 +10540,29 @@
         <v>339</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="H129" s="16" t="str">
         <f>VLOOKUP(G129,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+        <v>itemIdMultipleExpressionClick</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J129" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K129" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+      <c r="M129" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="N129" s="17"/>
       <c r="O129" s="5" t="s">
         <v>478</v>
       </c>
@@ -10567,18 +10584,16 @@
         <v>339</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H130" s="16" t="str">
         <f>VLOOKUP(G130,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I130" s="17" t="s">
-        <v>343</v>
-      </c>
+        <v>outIframe</v>
+      </c>
+      <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
@@ -10604,22 +10619,23 @@
       <c r="E131" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F131" s="19" t="s">
-        <v>510</v>
+      <c r="F131" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I131" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="H131" s="16" t="str">
+        <f>VLOOKUP(G131,KeyWords!A:B,2,FALSE)</f>
+        <v>intoIframe</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>343</v>
+      </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="18" t="s">
-        <v>346</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5" t="s">
         <v>478</v>
@@ -10641,19 +10657,16 @@
       <c r="E132" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F132" s="18" t="s">
-        <v>345</v>
+      <c r="F132" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H132" s="16" t="str">
-        <f>VLOOKUP(G132,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I132" s="23" t="s">
-        <v>92</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I132" s="17"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
@@ -10682,21 +10695,23 @@
         <v>339</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H133" s="16" t="str">
         <f>VLOOKUP(G133,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I133" s="5"/>
+        <v>inputText</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N133" s="5"/>
       <c r="O133" s="5" t="s">
@@ -10720,22 +10735,22 @@
         <v>339</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H134" s="16" t="str">
         <f>VLOOKUP(G134,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I134" s="20" t="s">
-        <v>515</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="18"/>
+      <c r="M134" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="N134" s="5"/>
       <c r="O134" s="5" t="s">
         <v>478</v>
@@ -10758,24 +10773,22 @@
         <v>339</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>351</v>
+        <v>142</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="H135" s="16" t="str">
         <f>VLOOKUP(G135,KeyWords!A:B,2,FALSE)</f>
-        <v>inputText</v>
-      </c>
-      <c r="I135" s="23" t="s">
-        <v>514</v>
+        <v>intoIframe</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>515</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="18" t="s">
-        <v>352</v>
-      </c>
+      <c r="M135" s="18"/>
       <c r="N135" s="5"/>
       <c r="O135" s="5" t="s">
         <v>478</v>
@@ -10797,22 +10810,24 @@
       <c r="E136" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F136" s="19" t="s">
-        <v>516</v>
+      <c r="F136" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H136" s="16" t="str">
         <f>VLOOKUP(G136,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I136" s="23"/>
+        <v>inputText</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>514</v>
+      </c>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="19" t="s">
-        <v>517</v>
+      <c r="M136" s="18" t="s">
+        <v>352</v>
       </c>
       <c r="N136" s="5"/>
       <c r="O136" s="5" t="s">
@@ -10835,23 +10850,23 @@
       <c r="E137" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>35</v>
+      <c r="F137" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H137" s="16" t="str">
         <f>VLOOKUP(G137,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I137" s="22" t="s">
-        <v>531</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I137" s="23"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
+      <c r="M137" s="19" t="s">
+        <v>517</v>
+      </c>
       <c r="N137" s="5"/>
       <c r="O137" s="5" t="s">
         <v>478</v>
@@ -10873,17 +10888,19 @@
       <c r="E138" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F138" s="18" t="s">
-        <v>152</v>
+      <c r="F138" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H138" s="16" t="str">
         <f>VLOOKUP(G138,KeyWords!A:B,2,FALSE)</f>
-        <v>outIframe</v>
-      </c>
-      <c r="I138" s="5"/>
+        <v>sleep</v>
+      </c>
+      <c r="I138" s="22" t="s">
+        <v>531</v>
+      </c>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
@@ -10910,22 +10927,20 @@
         <v>339</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H139" s="16" t="str">
         <f>VLOOKUP(G139,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
+        <v>outIframe</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5" t="s">
         <v>478</v>
@@ -10948,7 +10963,7 @@
         <v>339</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="G140" s="15" t="s">
         <v>38</v>
@@ -10985,23 +11000,23 @@
       <c r="E141" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>35</v>
+      <c r="F141" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H141" s="16" t="str">
         <f>VLOOKUP(G141,KeyWords!A:B,2,FALSE)</f>
-        <v>sleep</v>
-      </c>
-      <c r="I141" s="22" t="s">
-        <v>531</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
+      <c r="M141" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="N141" s="5"/>
       <c r="O141" s="5" t="s">
         <v>478</v>
@@ -11023,18 +11038,18 @@
       <c r="E142" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F142" s="18" t="s">
-        <v>142</v>
+      <c r="F142" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H142" s="16" t="str">
         <f>VLOOKUP(G142,KeyWords!A:B,2,FALSE)</f>
-        <v>intoIframe</v>
-      </c>
-      <c r="I142" s="17" t="s">
-        <v>143</v>
+        <v>sleep</v>
+      </c>
+      <c r="I142" s="22" t="s">
+        <v>531</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -11062,22 +11077,22 @@
         <v>339</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H143" s="16" t="str">
         <f>VLOOKUP(G143,KeyWords!A:B,2,FALSE)</f>
-        <v>buttonClick</v>
-      </c>
-      <c r="I143" s="5"/>
+        <v>intoIframe</v>
+      </c>
+      <c r="I143" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="17" t="s">
-        <v>359</v>
-      </c>
+      <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5" t="s">
         <v>478</v>
@@ -11100,23 +11115,21 @@
         <v>339</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="H144" s="16" t="str">
         <f>VLOOKUP(G144,KeyWords!A:B,2,FALSE)</f>
-        <v>assertString</v>
-      </c>
-      <c r="I144" s="17" t="s">
-        <v>362</v>
-      </c>
+        <v>buttonClick</v>
+      </c>
+      <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N144" s="5"/>
       <c r="O144" s="5" t="s">
@@ -11133,29 +11146,31 @@
       <c r="C145" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H145" s="16" t="str">
         <f>VLOOKUP(G145,KeyWords!A:B,2,FALSE)</f>
-        <v>closeBrowser</v>
+        <v>assertString</v>
       </c>
       <c r="I145" s="17" t="s">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="17"/>
+      <c r="M145" s="17" t="s">
+        <v>363</v>
+      </c>
       <c r="N145" s="5"/>
       <c r="O145" s="5" t="s">
         <v>478</v>
@@ -11169,25 +11184,27 @@
         <v>544</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E146" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>519</v>
+        <v>364</v>
       </c>
       <c r="H146" s="16" t="str">
         <f>VLOOKUP(G146,KeyWords!A:B,2,FALSE)</f>
-        <v>closeApp</v>
-      </c>
-      <c r="I146" s="24"/>
+        <v>closeBrowser</v>
+      </c>
+      <c r="I146" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
@@ -11208,13 +11225,13 @@
         <v>29</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G147" s="15" t="s">
         <v>519</v>
@@ -11228,37 +11245,73 @@
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
+      <c r="N147" s="5"/>
       <c r="O147" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H148" s="16" t="str">
+        <f>VLOOKUP(G148,KeyWords!A:B,2,FALSE)</f>
+        <v>closeApp</v>
+      </c>
+      <c r="I148" s="24"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="5" t="s">
         <v>478</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G147">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G148" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭app,关闭窗口,切换至窗口再关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C147">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C148" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D147">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D148" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I28" r:id="rId1"/>
-    <hyperlink ref="I31" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="I28"/>
+    <hyperlink r:id="rId2" ref="I31"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -11266,18 +11319,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.25" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14869,31 +14922,31 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C118" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D118" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G118">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G2:G118" type="list">
       <formula1>"浏览器,打开,打开app,关闭,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I20" r:id="rId1"/>
-    <hyperlink ref="I23" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="I20"/>
+    <hyperlink r:id="rId2" ref="I23"/>
+    <hyperlink r:id="rId3" ref="I3"/>
+    <hyperlink r:id="rId4" ref="I6"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -14901,8 +14954,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -15168,14 +15221,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -15202,7 +15255,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="27">
+    <row ht="27" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>505</v>
       </c>
@@ -15240,7 +15293,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27">
+    <row ht="27" r="3" spans="1:15">
       <c r="A3" s="14" t="s">
         <v>505</v>
       </c>
@@ -15314,7 +15367,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="27">
+    <row ht="27" r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>505</v>
       </c>
@@ -15352,7 +15405,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="27">
+    <row ht="27" r="6" spans="1:15">
       <c r="A6" s="14" t="s">
         <v>505</v>
       </c>
@@ -15428,7 +15481,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="27">
+    <row ht="27" r="8" spans="1:15">
       <c r="A8" s="14" t="s">
         <v>505</v>
       </c>
@@ -15506,7 +15559,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27">
+    <row ht="27" r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>505</v>
       </c>
@@ -15582,7 +15635,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27">
+    <row ht="27" r="12" spans="1:15">
       <c r="A12" s="14" t="s">
         <v>505</v>
       </c>
@@ -15623,18 +15676,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D1:D12" type="list">
       <formula1>"货主,货运站,车主,小二,水泥电商"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C1:C12" type="list">
       <formula1>"web,app"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G1:G12" type="list">
       <formula1>"浏览器,打开,打开app,关闭,关闭窗口,切换窗口,系统提示,断言,切入iframe,切入含工单id的iframe,切出iframe,等待,输入,清空,滑动至元素再单击,输入工单id,单击,双击,javaScript单击,单击含参数,根据工单id多表达式单击,根据竞价单id多表达式单击,根据托运单id多表达式单击,根据工单id单击,根据竞价单id单击,根据托运单id单击,滑动,使用index选择下拉框数据,使用value属性选择下拉框数据,使用文本选择下拉数据"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>